--- a/proof/0104.KL_weekly_calc.xlsx
+++ b/proof/0104.KL_weekly_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tys\Documents\Project\github_project\bursa-scraper\proof\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ACA701-57F9-4449-B516-5A0500D51C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B443C89D-8069-4492-8D2C-C2D615E8F2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="1750" windowWidth="16640" windowHeight="7870" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3030" yWindow="0" windowWidth="16640" windowHeight="7870" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="^KLSE_weekly" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -138,7 +138,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -641,8 +641,8 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13144,8 +13144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13229,11 +13229,11 @@
         <v>0.04</v>
       </c>
       <c r="E3">
-        <f>B3/B2-1</f>
+        <f t="shared" ref="E3:E66" si="0">B3/B2-1</f>
         <v>-3.9690618927288313E-3</v>
       </c>
       <c r="F3">
-        <f>C3/C2-1</f>
+        <f t="shared" ref="F3:F66" si="1">C3/C2-1</f>
         <v>2.6881565692905562E-2</v>
       </c>
       <c r="G3" s="7">
@@ -13275,35 +13275,35 @@
         <v>0.04</v>
       </c>
       <c r="E4">
-        <f>B4/B3-1</f>
+        <f t="shared" si="0"/>
         <v>2.2552891473217596E-3</v>
       </c>
       <c r="F4">
-        <f>C4/C3-1</f>
+        <f t="shared" si="1"/>
         <v>0.1832590599512316</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:G67" si="0">(1+D4)^(1/53) -1</f>
+        <f t="shared" ref="G4:G67" si="2">(1+D4)^(1/53) -1</f>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H67" si="1">E4-G4</f>
+        <f t="shared" ref="H4:H67" si="3">E4-G4</f>
         <v>1.5150018140885901E-3</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" ref="I4:I67" si="2">F4-G4</f>
+        <f t="shared" ref="I4:I67" si="4">F4-G4</f>
         <v>0.18251877261799843</v>
       </c>
       <c r="M4" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="6" cm="1">
-        <f t="array" ref="N4">(PRODUCT(1+E3:E263)^(1/52))-1</f>
-        <v>-3.1939770863533834E-3</v>
+        <f t="array" ref="N4">(PRODUCT(1+E3:E263)^(1/5)-1)</f>
+        <v>-3.2723146126085845E-2</v>
       </c>
       <c r="O4" s="6" cm="1">
-        <f t="array" ref="O4">(PRODUCT(1+F3:F263)^(1/52))-1</f>
-        <v>7.1819103357547043E-2</v>
+        <f t="array" ref="O4">(PRODUCT(1+F3:F263)^(1/5))-1</f>
+        <v>1.0571384929247434</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -13320,23 +13320,23 @@
         <v>0.04</v>
       </c>
       <c r="E5">
-        <f>B5/B4-1</f>
+        <f t="shared" si="0"/>
         <v>3.8011177055436995E-3</v>
       </c>
       <c r="F5">
-        <f>C5/C4-1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0608303723105301E-3</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.4028733323316942E-4</v>
       </c>
       <c r="M5" t="s">
@@ -13365,23 +13365,23 @@
         <v>0.04</v>
       </c>
       <c r="E6">
-        <f>B6/B5-1</f>
+        <f t="shared" si="0"/>
         <v>3.6125242504070343E-3</v>
       </c>
       <c r="F6">
-        <f>C6/C5-1</f>
+        <f t="shared" si="1"/>
         <v>0.1061881921004324</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8722369171738649E-3</v>
       </c>
       <c r="I6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10544790476719923</v>
       </c>
       <c r="M6" t="s">
@@ -13389,11 +13389,11 @@
       </c>
       <c r="N6" s="11">
         <f>(N4-$G$263)/N5</f>
-        <v>-3.3471129349595063E-2</v>
+        <v>-0.28469334806838931</v>
       </c>
       <c r="O6" s="11">
         <f>(O4-$G$263)/O5</f>
-        <v>9.292103532615259E-2</v>
+        <v>1.3810249026471526</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -13410,23 +13410,23 @@
         <v>0.04</v>
       </c>
       <c r="E7">
-        <f>B7/B6-1</f>
+        <f t="shared" si="0"/>
         <v>-8.5594024489392684E-3</v>
       </c>
       <c r="F7">
-        <f>C7/C6-1</f>
+        <f t="shared" si="1"/>
         <v>0.15201122043661197</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.2996897821724378E-3</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1512709331033788</v>
       </c>
       <c r="M7" t="s">
@@ -13434,11 +13434,11 @@
       </c>
       <c r="N7" s="11">
         <f>(N4-$G$263)/N3</f>
-        <v>-3.9342644195865528E-3</v>
+        <v>-3.3463433459319014E-2</v>
       </c>
       <c r="O7" s="11">
         <f>(O4-$G$263)/O3</f>
-        <v>9.5487491394365465E-2</v>
+        <v>1.4191684697018161</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -13455,23 +13455,23 @@
         <v>0.04</v>
       </c>
       <c r="E8">
-        <f>B8/B7-1</f>
+        <f t="shared" si="0"/>
         <v>-8.7293808494184333E-3</v>
       </c>
       <c r="F8">
-        <f>C8/C7-1</f>
+        <f t="shared" si="1"/>
         <v>-6.2500580860416877E-2</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.4696681826516027E-3</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.3240868193650046E-2</v>
       </c>
       <c r="M8" t="s">
@@ -13500,23 +13500,23 @@
         <v>0.04</v>
       </c>
       <c r="E9">
-        <f>B9/B8-1</f>
+        <f t="shared" si="0"/>
         <v>4.7961609331566013E-3</v>
       </c>
       <c r="F9">
-        <f>C9/C8-1</f>
+        <f t="shared" si="1"/>
         <v>-2.9631024842873388E-2</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.0558735999234319E-3</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.0371312176106557E-2</v>
       </c>
       <c r="M9" t="s">
@@ -13545,23 +13545,23 @@
         <v>0.04</v>
       </c>
       <c r="E10">
-        <f>B10/B9-1</f>
+        <f t="shared" si="0"/>
         <v>-4.9206655328797311E-3</v>
       </c>
       <c r="F10">
-        <f>C10/C9-1</f>
+        <f t="shared" si="1"/>
         <v>0.18319456505082488</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6609528661129005E-3</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18245427771759171</v>
       </c>
     </row>
@@ -13579,23 +13579,23 @@
         <v>0.04</v>
       </c>
       <c r="E11">
-        <f>B11/B10-1</f>
+        <f t="shared" si="0"/>
         <v>-8.3574063141192978E-3</v>
       </c>
       <c r="F11">
-        <f>C11/C10-1</f>
+        <f t="shared" si="1"/>
         <v>1.290829498260182E-2</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.0976936473524672E-3</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2168007649368651E-2</v>
       </c>
     </row>
@@ -13613,23 +13613,23 @@
         <v>0.04</v>
       </c>
       <c r="E12">
-        <f>B12/B11-1</f>
+        <f t="shared" si="0"/>
         <v>3.1482382583760682E-3</v>
       </c>
       <c r="F12">
-        <f>C12/C11-1</f>
+        <f t="shared" si="1"/>
         <v>-1.2743794326241065E-2</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4079509251428988E-3</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.3484081659474234E-2</v>
       </c>
     </row>
@@ -13647,23 +13647,23 @@
         <v>0.04</v>
       </c>
       <c r="E13">
-        <f>B13/B12-1</f>
+        <f t="shared" si="0"/>
         <v>-2.977986166614266E-3</v>
       </c>
       <c r="F13">
-        <f>C13/C12-1</f>
+        <f t="shared" si="1"/>
         <v>7.0974036626747283E-2</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.7182734998474354E-3</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0233749293514114E-2</v>
       </c>
     </row>
@@ -13681,23 +13681,23 @@
         <v>0.04</v>
       </c>
       <c r="E14">
-        <f>B14/B13-1</f>
+        <f t="shared" si="0"/>
         <v>7.7543322139694837E-4</v>
       </c>
       <c r="F14">
-        <f>C14/C13-1</f>
+        <f t="shared" si="1"/>
         <v>-9.6382531018970097E-2</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5145888163778949E-5</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-9.7122818352203266E-2</v>
       </c>
     </row>
@@ -13715,23 +13715,23 @@
         <v>0.04</v>
       </c>
       <c r="E15">
-        <f>B15/B14-1</f>
+        <f t="shared" si="0"/>
         <v>-1.1835063627421039E-2</v>
       </c>
       <c r="F15">
-        <f>C15/C14-1</f>
+        <f t="shared" si="1"/>
         <v>-0.18000214128941305</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.2575350960654208E-2</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.18074242862264622</v>
       </c>
     </row>
@@ -13749,23 +13749,23 @@
         <v>0.04</v>
       </c>
       <c r="E16">
-        <f>B16/B15-1</f>
+        <f t="shared" si="0"/>
         <v>-2.573129370789573E-3</v>
       </c>
       <c r="F16">
-        <f>C16/C15-1</f>
+        <f t="shared" si="1"/>
         <v>-0.11382158051073366</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.3134167040227425E-3</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.11456186784396682</v>
       </c>
     </row>
@@ -13783,23 +13783,23 @@
         <v>0.04</v>
       </c>
       <c r="E17">
-        <f>B17/B16-1</f>
+        <f t="shared" si="0"/>
         <v>3.668728168837454E-4</v>
       </c>
       <c r="F17">
-        <f>C17/C16-1</f>
+        <f t="shared" si="1"/>
         <v>-4.5870883775753324E-2</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.7341451634942402E-4</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.6611171108986493E-2</v>
       </c>
     </row>
@@ -13817,23 +13817,23 @@
         <v>0.04</v>
       </c>
       <c r="E18">
-        <f>B18/B17-1</f>
+        <f t="shared" si="0"/>
         <v>1.973394240276205E-3</v>
       </c>
       <c r="F18">
-        <f>C18/C17-1</f>
+        <f t="shared" si="1"/>
         <v>9.6126624630035185E-3</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2331069070430356E-3</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.872375129770349E-3</v>
       </c>
     </row>
@@ -13851,23 +13851,23 @@
         <v>0.04</v>
       </c>
       <c r="E19">
-        <f>B19/B18-1</f>
+        <f t="shared" si="0"/>
         <v>1.8486533623820023E-2</v>
       </c>
       <c r="F19">
-        <f>C19/C18-1</f>
+        <f t="shared" si="1"/>
         <v>1.9042277935684471E-2</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7746246290586853E-2</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8301990602451301E-2</v>
       </c>
     </row>
@@ -13885,23 +13885,23 @@
         <v>0.04</v>
       </c>
       <c r="E20">
-        <f>B20/B19-1</f>
+        <f t="shared" si="0"/>
         <v>4.0899931097215791E-3</v>
       </c>
       <c r="F20">
-        <f>C20/C19-1</f>
+        <f t="shared" si="1"/>
         <v>7.477079711323209E-2</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.3497057764884097E-3</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.4030509779998921E-2</v>
       </c>
     </row>
@@ -13919,23 +13919,23 @@
         <v>0.04</v>
       </c>
       <c r="E21">
-        <f>B21/B20-1</f>
+        <f t="shared" si="0"/>
         <v>2.0775615375037582E-2</v>
       </c>
       <c r="F21">
-        <f>C21/C20-1</f>
+        <f t="shared" si="1"/>
         <v>2.6091307940276254E-2</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0035328041804412E-2</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5351020607043084E-2</v>
       </c>
     </row>
@@ -13953,23 +13953,23 @@
         <v>0.04</v>
       </c>
       <c r="E22">
-        <f>B22/B21-1</f>
+        <f t="shared" si="0"/>
         <v>1.1776376637036678E-2</v>
       </c>
       <c r="F22">
-        <f>C22/C21-1</f>
+        <f t="shared" si="1"/>
         <v>4.2372208549296353E-2</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1036089303803509E-2</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1631921216063184E-2</v>
       </c>
     </row>
@@ -13987,23 +13987,23 @@
         <v>0.04</v>
       </c>
       <c r="E23">
-        <f>B23/B22-1</f>
+        <f t="shared" si="0"/>
         <v>2.5853413835073003E-3</v>
       </c>
       <c r="F23">
-        <f>C23/C22-1</f>
+        <f t="shared" si="1"/>
         <v>-6.5044011881575936E-2</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8450540502741308E-3</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.5784299214809105E-2</v>
       </c>
     </row>
@@ -14021,23 +14021,23 @@
         <v>0.04</v>
       </c>
       <c r="E24">
-        <f>B24/B23-1</f>
+        <f t="shared" si="0"/>
         <v>3.379608953511859E-3</v>
       </c>
       <c r="F24">
-        <f>C24/C23-1</f>
+        <f t="shared" si="1"/>
         <v>8.6932234751946336E-3</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6393216202786896E-3</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.9529361419614641E-3</v>
       </c>
     </row>
@@ -14055,23 +14055,23 @@
         <v>0.04</v>
       </c>
       <c r="E25">
-        <f>B25/B24-1</f>
+        <f t="shared" si="0"/>
         <v>1.3719202224178773E-2</v>
       </c>
       <c r="F25">
-        <f>C25/C24-1</f>
+        <f t="shared" si="1"/>
         <v>-8.618302644330611E-3</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2978914890945603E-2</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-9.3585899775637804E-3</v>
       </c>
     </row>
@@ -14089,23 +14089,23 @@
         <v>0.04</v>
       </c>
       <c r="E26">
-        <f>B26/B25-1</f>
+        <f t="shared" si="0"/>
         <v>8.9323895351336446E-3</v>
       </c>
       <c r="F26">
-        <f>C26/C25-1</f>
+        <f t="shared" si="1"/>
         <v>4.3477754890665521E-2</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1921022019004752E-3</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2737467557432351E-2</v>
       </c>
     </row>
@@ -14123,23 +14123,23 @@
         <v>0.04</v>
       </c>
       <c r="E27">
-        <f>B27/B26-1</f>
+        <f t="shared" si="0"/>
         <v>-2.7083975525896808E-2</v>
       </c>
       <c r="F27">
-        <f>C27/C26-1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.7824262859129978E-2</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -14157,23 +14157,23 @@
         <v>0.04</v>
       </c>
       <c r="E28">
-        <f>B28/B27-1</f>
+        <f t="shared" si="0"/>
         <v>1.0143906291705251E-2</v>
       </c>
       <c r="F28">
-        <f>C28/C27-1</f>
+        <f t="shared" si="1"/>
         <v>8.3343556571683575E-2</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.403618958472082E-3</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.2603269238450405E-2</v>
       </c>
     </row>
@@ -14191,23 +14191,23 @@
         <v>0.04</v>
       </c>
       <c r="E29">
-        <f>B29/B28-1</f>
+        <f t="shared" si="0"/>
         <v>1.2631356830129503E-2</v>
       </c>
       <c r="F29">
-        <f>C29/C28-1</f>
+        <f t="shared" si="1"/>
         <v>0.12307233008709262</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1891069496896334E-2</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12233204275385945</v>
       </c>
     </row>
@@ -14225,23 +14225,23 @@
         <v>0.04</v>
       </c>
       <c r="E30">
-        <f>B30/B29-1</f>
+        <f t="shared" si="0"/>
         <v>-2.91703142626909E-3</v>
       </c>
       <c r="F30">
-        <f>C30/C29-1</f>
+        <f t="shared" si="1"/>
         <v>-2.0542106276296268E-2</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.6573187595022594E-3</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.1282393609529437E-2</v>
       </c>
     </row>
@@ -14259,23 +14259,23 @@
         <v>0.04</v>
       </c>
       <c r="E31">
-        <f>B31/B30-1</f>
+        <f t="shared" si="0"/>
         <v>-6.5460367084679838E-3</v>
       </c>
       <c r="F31">
-        <f>C31/C30-1</f>
+        <f t="shared" si="1"/>
         <v>-4.8955564706322785E-2</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.2863240417011532E-3</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.9695852039555954E-2</v>
       </c>
     </row>
@@ -14293,23 +14293,23 @@
         <v>0.04</v>
       </c>
       <c r="E32">
-        <f>B32/B31-1</f>
+        <f t="shared" si="0"/>
         <v>1.3395217477227828E-3</v>
       </c>
       <c r="F32">
-        <f>C32/C31-1</f>
+        <f t="shared" si="1"/>
         <v>2.2062368998533755E-2</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.9923441448961334E-4</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1322081665300585E-2</v>
       </c>
     </row>
@@ -14327,23 +14327,23 @@
         <v>0.04</v>
       </c>
       <c r="E33">
-        <f>B33/B32-1</f>
+        <f t="shared" si="0"/>
         <v>1.0198254890367853E-2</v>
       </c>
       <c r="F33">
-        <f>C33/C32-1</f>
+        <f t="shared" si="1"/>
         <v>-2.8778294484079869E-2</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.4579675571346833E-3</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.9518581817313039E-2</v>
       </c>
     </row>
@@ -14361,23 +14361,23 @@
         <v>0.04</v>
       </c>
       <c r="E34">
-        <f>B34/B33-1</f>
+        <f t="shared" si="0"/>
         <v>-9.4359379985431424E-4</v>
       </c>
       <c r="F34">
-        <f>C34/C33-1</f>
+        <f t="shared" si="1"/>
         <v>-1.4820469100065514E-2</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.6838811330874837E-3</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.5560756433298684E-2</v>
       </c>
     </row>
@@ -14395,23 +14395,23 @@
         <v>0.04</v>
       </c>
       <c r="E35">
-        <f>B35/B34-1</f>
+        <f t="shared" si="0"/>
         <v>-1.4194000168270882E-2</v>
       </c>
       <c r="F35">
-        <f>C35/C34-1</f>
+        <f t="shared" si="1"/>
         <v>-3.7593455357771699E-2</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.4934287501504051E-2</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.8333742691004868E-2</v>
       </c>
     </row>
@@ -14429,23 +14429,23 @@
         <v>0.04</v>
       </c>
       <c r="E36">
-        <f>B36/B35-1</f>
+        <f t="shared" si="0"/>
         <v>1.7125633953404495E-2</v>
       </c>
       <c r="F36">
-        <f>C36/C35-1</f>
+        <f t="shared" si="1"/>
         <v>3.1251633679411972E-2</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6385346620171326E-2</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0511346346178803E-2</v>
       </c>
     </row>
@@ -14463,23 +14463,23 @@
         <v>0.04</v>
       </c>
       <c r="E37">
-        <f>B37/B36-1</f>
+        <f t="shared" si="0"/>
         <v>1.0318618601979024E-2</v>
       </c>
       <c r="F37">
-        <f>C37/C36-1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.5783312687458544E-3</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -14497,23 +14497,23 @@
         <v>0.04</v>
       </c>
       <c r="E38">
-        <f>B38/B37-1</f>
+        <f t="shared" si="0"/>
         <v>-1.2861887961859386E-2</v>
       </c>
       <c r="F38">
-        <f>C38/C37-1</f>
+        <f t="shared" si="1"/>
         <v>-9.0913699407900062E-2</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.3602175295092556E-2</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-9.1653986741133231E-2</v>
       </c>
     </row>
@@ -14531,23 +14531,23 @@
         <v>0.04</v>
       </c>
       <c r="E39">
-        <f>B39/B38-1</f>
+        <f t="shared" si="0"/>
         <v>-1.1612752197121323E-2</v>
       </c>
       <c r="F39">
-        <f>C39/C38-1</f>
+        <f t="shared" si="1"/>
         <v>4.1666201974014383E-2</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.2353039530354493E-2</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.0925914640781214E-2</v>
       </c>
     </row>
@@ -14565,23 +14565,23 @@
         <v>0.04</v>
       </c>
       <c r="E40">
-        <f>B40/B39-1</f>
+        <f t="shared" si="0"/>
         <v>2.5409804986362694E-3</v>
       </c>
       <c r="F40">
-        <f>C40/C39-1</f>
+        <f t="shared" si="1"/>
         <v>-3.9999571739060658E-2</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8006931654031E-3</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.0739859072293827E-2</v>
       </c>
     </row>
@@ -14599,23 +14599,23 @@
         <v>0.04</v>
       </c>
       <c r="E41">
-        <f>B41/B40-1</f>
+        <f t="shared" si="0"/>
         <v>4.3270764613942969E-3</v>
       </c>
       <c r="F41">
-        <f>C41/C40-1</f>
+        <f t="shared" si="1"/>
         <v>8.3343556571683575E-2</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5867891281611275E-3</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.2603269238450405E-2</v>
       </c>
     </row>
@@ -14633,23 +14633,23 @@
         <v>0.04</v>
       </c>
       <c r="E42">
-        <f>B42/B41-1</f>
+        <f t="shared" si="0"/>
         <v>-3.0789957400916723E-2</v>
       </c>
       <c r="F42">
-        <f>C42/C41-1</f>
+        <f t="shared" si="1"/>
         <v>-2.3080565792995666E-2</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.1530244734149893E-2</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.3820853126228836E-2</v>
       </c>
     </row>
@@ -14667,23 +14667,23 @@
         <v>0.04</v>
       </c>
       <c r="E43">
-        <f>B43/B42-1</f>
+        <f t="shared" si="0"/>
         <v>-2.2821864054898944E-2</v>
       </c>
       <c r="F43">
-        <f>C43/C42-1</f>
+        <f t="shared" si="1"/>
         <v>-6.299527904231994E-2</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.3562151388132113E-2</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.373556637555311E-2</v>
       </c>
     </row>
@@ -14701,23 +14701,23 @@
         <v>0.04</v>
       </c>
       <c r="E44">
-        <f>B44/B43-1</f>
+        <f t="shared" si="0"/>
         <v>1.2491568417735577E-2</v>
       </c>
       <c r="F44">
-        <f>C44/C43-1</f>
+        <f t="shared" si="1"/>
         <v>8.4009986729345343E-3</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1751281084502407E-2</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.6607113397013649E-3</v>
       </c>
     </row>
@@ -14735,23 +14735,23 @@
         <v>0.04</v>
       </c>
       <c r="E45">
-        <f>B45/B44-1</f>
+        <f t="shared" si="0"/>
         <v>-9.300866830630472E-3</v>
       </c>
       <c r="F45">
-        <f>C45/C44-1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.0041154163863641E-2</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -14769,23 +14769,23 @@
         <v>0.04</v>
       </c>
       <c r="E46">
-        <f>B46/B45-1</f>
+        <f t="shared" si="0"/>
         <v>-3.8387315037500591E-2</v>
       </c>
       <c r="F46">
-        <f>C46/C45-1</f>
+        <f t="shared" si="1"/>
         <v>4.1666201974014383E-2</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.9127602370733761E-2</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.0925914640781214E-2</v>
       </c>
     </row>
@@ -14803,23 +14803,23 @@
         <v>0.04</v>
       </c>
       <c r="E47">
-        <f>B47/B46-1</f>
+        <f t="shared" si="0"/>
         <v>-1.5642203833536872E-3</v>
       </c>
       <c r="F47">
-        <f>C47/C46-1</f>
+        <f t="shared" si="1"/>
         <v>-3.9999571739060658E-2</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.3045077165868566E-3</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.0739859072293827E-2</v>
       </c>
     </row>
@@ -14837,23 +14837,23 @@
         <v>0.04</v>
       </c>
       <c r="E48">
-        <f>B48/B47-1</f>
+        <f t="shared" si="0"/>
         <v>-1.6340535028081526E-2</v>
       </c>
       <c r="F48">
-        <f>C48/C47-1</f>
+        <f t="shared" si="1"/>
         <v>-4.1666201974014272E-2</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.7080822361314696E-2</v>
       </c>
       <c r="I48" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.2406489307247441E-2</v>
       </c>
     </row>
@@ -14871,23 +14871,23 @@
         <v>0.04</v>
       </c>
       <c r="E49">
-        <f>B49/B48-1</f>
+        <f t="shared" si="0"/>
         <v>3.4900814686038562E-2</v>
       </c>
       <c r="F49">
-        <f>C49/C48-1</f>
+        <f t="shared" si="1"/>
         <v>4.3477754890665521E-2</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H49" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.4160527352805392E-2</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2737467557432351E-2</v>
       </c>
     </row>
@@ -14905,23 +14905,23 @@
         <v>0.04</v>
       </c>
       <c r="E50">
-        <f>B50/B49-1</f>
+        <f t="shared" si="0"/>
         <v>1.9013542346825174E-2</v>
       </c>
       <c r="F50">
-        <f>C50/C49-1</f>
+        <f t="shared" si="1"/>
         <v>3.3335192103942424E-2</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8273255013592005E-2</v>
       </c>
       <c r="I50" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2594904770709254E-2</v>
       </c>
     </row>
@@ -14939,23 +14939,23 @@
         <v>0.04</v>
       </c>
       <c r="E51">
-        <f>B51/B50-1</f>
+        <f t="shared" si="0"/>
         <v>8.2465481470315183E-3</v>
       </c>
       <c r="F51">
-        <f>C51/C50-1</f>
+        <f t="shared" si="1"/>
         <v>3.225980529712702E-2</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5062608137983489E-3</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1519517963893851E-2</v>
       </c>
     </row>
@@ -14973,23 +14973,23 @@
         <v>0.04</v>
       </c>
       <c r="E52">
-        <f>B52/B51-1</f>
+        <f t="shared" si="0"/>
         <v>6.1894202308232504E-3</v>
       </c>
       <c r="F52">
-        <f>C52/C51-1</f>
+        <f t="shared" si="1"/>
         <v>3.1251633679411972E-2</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.449132897590081E-3</v>
       </c>
       <c r="I52" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0511346346178803E-2</v>
       </c>
     </row>
@@ -15007,23 +15007,23 @@
         <v>0.04</v>
       </c>
       <c r="E53">
-        <f>B53/B52-1</f>
+        <f t="shared" si="0"/>
         <v>1.4415020864175787E-2</v>
       </c>
       <c r="F53">
-        <f>C53/C52-1</f>
+        <f t="shared" si="1"/>
         <v>2.2730959526320094E-2</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H53" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3674733530942618E-2</v>
       </c>
       <c r="I53" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1990672193086924E-2</v>
       </c>
     </row>
@@ -15041,23 +15041,23 @@
         <v>0.04</v>
       </c>
       <c r="E54">
-        <f>B54/B53-1</f>
+        <f t="shared" si="0"/>
         <v>-1.2338379620656204E-2</v>
       </c>
       <c r="F54">
-        <f>C54/C53-1</f>
+        <f t="shared" si="1"/>
         <v>2.9631024842873277E-2</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H54" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.3078666953889373E-2</v>
       </c>
       <c r="I54" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.8890737509640108E-2</v>
       </c>
     </row>
@@ -15075,23 +15075,23 @@
         <v>0.04</v>
       </c>
       <c r="E55">
-        <f>B55/B54-1</f>
+        <f t="shared" si="0"/>
         <v>1.4084899330216949E-2</v>
       </c>
       <c r="F55">
-        <f>C55/C54-1</f>
+        <f t="shared" si="1"/>
         <v>0.16545834416490957</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H55" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.334461199698378E-2</v>
       </c>
       <c r="I55" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1647180568316764</v>
       </c>
     </row>
@@ -15109,23 +15109,23 @@
         <v>0.04</v>
       </c>
       <c r="E56">
-        <f>B56/B55-1</f>
+        <f t="shared" si="0"/>
         <v>6.1208279422688694E-3</v>
       </c>
       <c r="F56">
-        <f>C56/C55-1</f>
+        <f t="shared" si="1"/>
         <v>-1.2350472539818913E-2</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.3805406090357E-3</v>
       </c>
       <c r="I56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.3090759873052082E-2</v>
       </c>
     </row>
@@ -15143,23 +15143,23 @@
         <v>0.04</v>
       </c>
       <c r="E57">
-        <f>B57/B56-1</f>
+        <f t="shared" si="0"/>
         <v>-1.1260339633309746E-2</v>
       </c>
       <c r="F57">
-        <f>C57/C56-1</f>
+        <f t="shared" si="1"/>
         <v>3.1258103100716861E-2</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H57" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.2000626966542915E-2</v>
       </c>
       <c r="I57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0517815767483691E-2</v>
       </c>
     </row>
@@ -15177,23 +15177,23 @@
         <v>0.04</v>
       </c>
       <c r="E58">
-        <f>B58/B57-1</f>
+        <f t="shared" si="0"/>
         <v>2.5511574157801586E-3</v>
       </c>
       <c r="F58">
-        <f>C58/C57-1</f>
+        <f t="shared" si="1"/>
         <v>2.7228485684159365E-2</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H58" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8108700825469892E-3</v>
       </c>
       <c r="I58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6488198350926195E-2</v>
       </c>
     </row>
@@ -15211,23 +15211,23 @@
         <v>0.04</v>
       </c>
       <c r="E59">
-        <f>B59/B58-1</f>
+        <f t="shared" si="0"/>
         <v>3.8142574188679834E-3</v>
       </c>
       <c r="F59">
-        <f>C59/C58-1</f>
+        <f t="shared" si="1"/>
         <v>0.10179475234312685</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H59" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.073970085634814E-3</v>
       </c>
       <c r="I59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10105446500989368</v>
       </c>
     </row>
@@ -15245,23 +15245,23 @@
         <v>0.04</v>
       </c>
       <c r="E60">
-        <f>B60/B59-1</f>
+        <f t="shared" si="0"/>
         <v>-9.659562836956237E-3</v>
       </c>
       <c r="F60">
-        <f>C60/C59-1</f>
+        <f t="shared" si="1"/>
         <v>2.7175198331649053E-2</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H60" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.0399850170189406E-2</v>
       </c>
       <c r="I60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6434910998415884E-2</v>
       </c>
     </row>
@@ -15279,23 +15279,23 @@
         <v>0.04</v>
       </c>
       <c r="E61">
-        <f>B61/B60-1</f>
+        <f t="shared" si="0"/>
         <v>-8.9228451528604591E-3</v>
       </c>
       <c r="F61">
-        <f>C61/C60-1</f>
+        <f t="shared" si="1"/>
         <v>-0.12698578814073713</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H61" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.6631324860936285E-3</v>
       </c>
       <c r="I61" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.1277260754739703</v>
       </c>
     </row>
@@ -15313,23 +15313,23 @@
         <v>0.04</v>
       </c>
       <c r="E62">
-        <f>B62/B61-1</f>
+        <f t="shared" si="0"/>
         <v>-2.6114865584358826E-2</v>
       </c>
       <c r="F62">
-        <f>C62/C61-1</f>
+        <f t="shared" si="1"/>
         <v>-6.6666666666666541E-2</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H62" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.6855152917591996E-2</v>
       </c>
       <c r="I62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.740695399989971E-2</v>
       </c>
     </row>
@@ -15347,23 +15347,23 @@
         <v>0.04</v>
       </c>
       <c r="E63">
-        <f>B63/B62-1</f>
+        <f t="shared" si="0"/>
         <v>8.089169997163026E-4</v>
       </c>
       <c r="F63">
-        <f>C63/C62-1</f>
+        <f t="shared" si="1"/>
         <v>-1.9488303592834932E-2</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.8629666483133178E-5</v>
       </c>
       <c r="I63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.0228590926068102E-2</v>
       </c>
     </row>
@@ -15381,23 +15381,23 @@
         <v>0.04</v>
       </c>
       <c r="E64">
-        <f>B64/B63-1</f>
+        <f t="shared" si="0"/>
         <v>-2.833486645131289E-2</v>
       </c>
       <c r="F64">
-        <f>C64/C63-1</f>
+        <f t="shared" si="1"/>
         <v>-5.9600740533743202E-2</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H64" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.9075153784546059E-2</v>
       </c>
       <c r="I64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.0341027866976371E-2</v>
       </c>
     </row>
@@ -15415,23 +15415,23 @@
         <v>0.04</v>
       </c>
       <c r="E65">
-        <f>B65/B64-1</f>
+        <f t="shared" si="0"/>
         <v>1.8305904079445545E-2</v>
       </c>
       <c r="F65">
-        <f>C65/C64-1</f>
+        <f t="shared" si="1"/>
         <v>0.1267655334441482</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H65" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7565616746212376E-2</v>
       </c>
       <c r="I65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12602524611091503</v>
       </c>
     </row>
@@ -15449,23 +15449,23 @@
         <v>0.04</v>
       </c>
       <c r="E66">
-        <f>B66/B65-1</f>
+        <f t="shared" si="0"/>
         <v>-3.3725014247653062E-3</v>
       </c>
       <c r="F66">
-        <f>C66/C65-1</f>
+        <f t="shared" si="1"/>
         <v>-1.8749278873889441E-2</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.1127887579984757E-3</v>
       </c>
       <c r="I66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.9489566207122611E-2</v>
       </c>
     </row>
@@ -15483,23 +15483,23 @@
         <v>0.04</v>
       </c>
       <c r="E67">
-        <f>B67/B66-1</f>
+        <f t="shared" ref="E67:E130" si="5">B67/B66-1</f>
         <v>-1.0010953954635582E-3</v>
       </c>
       <c r="F67">
-        <f>C67/C66-1</f>
+        <f t="shared" ref="F67:F130" si="6">C67/C66-1</f>
         <v>0.24841470482013728</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H67" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.7413827286967276E-3</v>
       </c>
       <c r="I67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24767441748690411</v>
       </c>
     </row>
@@ -15517,23 +15517,23 @@
         <v>0.04</v>
       </c>
       <c r="E68">
-        <f>B68/B67-1</f>
+        <f t="shared" si="5"/>
         <v>-6.1533773070671094E-3</v>
       </c>
       <c r="F68">
-        <f>C68/C67-1</f>
+        <f t="shared" si="6"/>
         <v>-4.0823466092572591E-2</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" ref="G68:G131" si="3">(1+D68)^(1/53) -1</f>
+        <f t="shared" ref="G68:G131" si="7">(1+D68)^(1/53) -1</f>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H68" s="8">
-        <f t="shared" ref="H68:H131" si="4">E68-G68</f>
+        <f t="shared" ref="H68:H131" si="8">E68-G68</f>
         <v>-6.8936646403002788E-3</v>
       </c>
       <c r="I68" s="8">
-        <f t="shared" ref="I68:I131" si="5">F68-G68</f>
+        <f t="shared" ref="I68:I131" si="9">F68-G68</f>
         <v>-4.1563753425805761E-2</v>
       </c>
     </row>
@@ -15551,23 +15551,23 @@
         <v>0.04</v>
       </c>
       <c r="E69">
-        <f>B69/B68-1</f>
+        <f t="shared" si="5"/>
         <v>-9.4464348614098359E-3</v>
       </c>
       <c r="F69">
-        <f>C69/C68-1</f>
+        <f t="shared" si="6"/>
         <v>-0.13829503689363964</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.0186722194643005E-2</v>
       </c>
       <c r="I69" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-0.13903532422687281</v>
       </c>
     </row>
@@ -15585,23 +15585,23 @@
         <v>0.04</v>
       </c>
       <c r="E70">
-        <f>B70/B69-1</f>
+        <f t="shared" si="5"/>
         <v>4.0482778688244458E-4</v>
       </c>
       <c r="F70">
-        <f>C70/C69-1</f>
+        <f t="shared" si="6"/>
         <v>3.0865654633511097E-2</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H70" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.3545954635072484E-4</v>
       </c>
       <c r="I70" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.0125367300277928E-2</v>
       </c>
     </row>
@@ -15619,23 +15619,23 @@
         <v>0.04</v>
       </c>
       <c r="E71">
-        <f>B71/B70-1</f>
+        <f t="shared" si="5"/>
         <v>-1.1056016261924984E-2</v>
       </c>
       <c r="F71">
-        <f>C71/C70-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.1796303595158153E-2</v>
       </c>
       <c r="I71" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -15653,23 +15653,23 @@
         <v>0.04</v>
       </c>
       <c r="E72">
-        <f>B72/B71-1</f>
+        <f t="shared" si="5"/>
         <v>5.0061783648469582E-3</v>
       </c>
       <c r="F72">
-        <f>C72/C71-1</f>
+        <f t="shared" si="6"/>
         <v>-3.5926630713716157E-2</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H72" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.2658910316137888E-3</v>
       </c>
       <c r="I72" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.6666918046949326E-2</v>
       </c>
     </row>
@@ -15687,23 +15687,23 @@
         <v>0.04</v>
       </c>
       <c r="E73">
-        <f>B73/B72-1</f>
+        <f t="shared" si="5"/>
         <v>1.3045666967020919E-2</v>
       </c>
       <c r="F73">
-        <f>C73/C72-1</f>
+        <f t="shared" si="6"/>
         <v>-1.2424547695684462E-2</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H73" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.230537963378775E-2</v>
       </c>
       <c r="I73" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.3164835028917632E-2</v>
       </c>
     </row>
@@ -15721,23 +15721,23 @@
         <v>0.04</v>
       </c>
       <c r="E74">
-        <f>B74/B73-1</f>
+        <f t="shared" si="5"/>
         <v>-1.3173165242189144E-2</v>
       </c>
       <c r="F74">
-        <f>C74/C73-1</f>
+        <f t="shared" si="6"/>
         <v>-1.2580859180627013E-2</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H74" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.3913452575422314E-2</v>
       </c>
       <c r="I74" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.3321146513860183E-2</v>
       </c>
     </row>
@@ -15755,23 +15755,23 @@
         <v>0.04</v>
       </c>
       <c r="E75">
-        <f>B75/B74-1</f>
+        <f t="shared" si="5"/>
         <v>8.0489296593448945E-3</v>
       </c>
       <c r="F75">
-        <f>C75/C74-1</f>
+        <f t="shared" si="6"/>
         <v>9.5537656534775639E-2</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H75" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.308642326111725E-3</v>
       </c>
       <c r="I75" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.479736920154247E-2</v>
       </c>
     </row>
@@ -15789,23 +15789,23 @@
         <v>0.04</v>
       </c>
       <c r="E76">
-        <f>B76/B75-1</f>
+        <f t="shared" si="5"/>
         <v>5.3468947345325368E-3</v>
       </c>
       <c r="F76">
-        <f>C76/C75-1</f>
+        <f t="shared" si="6"/>
         <v>4.6512519357855719E-2</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H76" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.6066074012993674E-3</v>
       </c>
       <c r="I76" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.577223202462255E-2</v>
       </c>
     </row>
@@ -15823,23 +15823,23 @@
         <v>0.04</v>
       </c>
       <c r="E77">
-        <f>B77/B76-1</f>
+        <f t="shared" si="5"/>
         <v>5.2062132293555496E-3</v>
       </c>
       <c r="F77">
-        <f>C77/C76-1</f>
+        <f t="shared" si="6"/>
         <v>-2.2218966338229174E-2</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H77" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4659258961223802E-3</v>
       </c>
       <c r="I77" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.2959253671462343E-2</v>
       </c>
     </row>
@@ -15857,23 +15857,23 @@
         <v>0.04</v>
       </c>
       <c r="E78">
-        <f>B78/B77-1</f>
+        <f t="shared" si="5"/>
         <v>-1.028788422405913E-2</v>
       </c>
       <c r="F78">
-        <f>C78/C77-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H78" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.1028171557292299E-2</v>
       </c>
       <c r="I78" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -15891,23 +15891,23 @@
         <v>0.04</v>
       </c>
       <c r="E79">
-        <f>B79/B78-1</f>
+        <f t="shared" si="5"/>
         <v>1.7760247506697358E-3</v>
       </c>
       <c r="F79">
-        <f>C79/C78-1</f>
+        <f t="shared" si="6"/>
         <v>3.9776132821865096E-2</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H79" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0357374174365663E-3</v>
       </c>
       <c r="I79" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.9035845488631926E-2</v>
       </c>
     </row>
@@ -15925,23 +15925,23 @@
         <v>0.04</v>
       </c>
       <c r="E80">
-        <f>B80/B79-1</f>
+        <f t="shared" si="5"/>
         <v>1.3696463561696515E-3</v>
       </c>
       <c r="F80">
-        <f>C80/C79-1</f>
+        <f t="shared" si="6"/>
         <v>3.8247310510804766E-2</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.2935902293648205E-4</v>
       </c>
       <c r="I80" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.7507023177571597E-2</v>
       </c>
     </row>
@@ -15959,23 +15959,23 @@
         <v>0.04</v>
       </c>
       <c r="E81">
-        <f>B81/B80-1</f>
+        <f t="shared" si="5"/>
         <v>1.9297436005451862E-2</v>
       </c>
       <c r="F81">
-        <f>C81/C80-1</f>
+        <f t="shared" si="6"/>
         <v>2.1049490245612201E-2</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8557148672218693E-2</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.0309202912379032E-2</v>
       </c>
     </row>
@@ -15993,23 +15993,23 @@
         <v>0.04</v>
       </c>
       <c r="E82">
-        <f>B82/B81-1</f>
+        <f t="shared" si="5"/>
         <v>-1.2001738955004337E-2</v>
       </c>
       <c r="F82">
-        <f>C82/C81-1</f>
+        <f t="shared" si="6"/>
         <v>-3.0926713883715595E-2</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H82" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.2742026288237507E-2</v>
       </c>
       <c r="I82" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.1667001216948765E-2</v>
       </c>
     </row>
@@ -16027,23 +16027,23 @@
         <v>0.04</v>
       </c>
       <c r="E83">
-        <f>B83/B82-1</f>
+        <f t="shared" si="5"/>
         <v>-1.226509670814746E-2</v>
       </c>
       <c r="F83">
-        <f>C83/C82-1</f>
+        <f t="shared" si="6"/>
         <v>-5.8510787531913855E-2</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H83" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.300538404138063E-2</v>
       </c>
       <c r="I83" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-5.9251074865147024E-2</v>
       </c>
     </row>
@@ -16061,23 +16061,23 @@
         <v>0.04</v>
       </c>
       <c r="E84">
-        <f>B84/B83-1</f>
+        <f t="shared" si="5"/>
         <v>3.8098398169905678E-4</v>
       </c>
       <c r="F84">
-        <f>C84/C83-1</f>
+        <f t="shared" si="6"/>
         <v>-2.2602994859569292E-2</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H84" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.5930335153411264E-4</v>
       </c>
       <c r="I84" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.3343282192802461E-2</v>
       </c>
     </row>
@@ -16095,23 +16095,23 @@
         <v>0.04</v>
       </c>
       <c r="E85">
-        <f>B85/B84-1</f>
+        <f t="shared" si="5"/>
         <v>-8.2592527865383847E-3</v>
       </c>
       <c r="F85">
-        <f>C85/C84-1</f>
+        <f t="shared" si="6"/>
         <v>-3.2546723985488191E-3</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H85" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-8.9995401197715541E-3</v>
       </c>
       <c r="I85" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.9949597317819885E-3</v>
       </c>
     </row>
@@ -16129,23 +16129,23 @@
         <v>0.04</v>
       </c>
       <c r="E86">
-        <f>B86/B85-1</f>
+        <f t="shared" si="5"/>
         <v>-1.3818072390400893E-2</v>
       </c>
       <c r="F86">
-        <f>C86/C85-1</f>
+        <f t="shared" si="6"/>
         <v>1.764179583846337E-2</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H86" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.4558359723634062E-2</v>
       </c>
       <c r="I86" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6901508505230201E-2</v>
       </c>
     </row>
@@ -16163,23 +16163,23 @@
         <v>0.04</v>
       </c>
       <c r="E87">
-        <f>B87/B86-1</f>
+        <f t="shared" si="5"/>
         <v>-1.1072723146108299E-3</v>
       </c>
       <c r="F87">
-        <f>C87/C86-1</f>
+        <f t="shared" si="6"/>
         <v>-1.7335958399711471E-2</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H87" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.8475596478439993E-3</v>
       </c>
       <c r="I87" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.807624573294464E-2</v>
       </c>
     </row>
@@ -16197,23 +16197,23 @@
         <v>0.04</v>
       </c>
       <c r="E88">
-        <f>B88/B87-1</f>
+        <f t="shared" si="5"/>
         <v>-7.0897452090711299E-3</v>
       </c>
       <c r="F88">
-        <f>C88/C87-1</f>
+        <f t="shared" si="6"/>
         <v>-2.9410640136423694E-2</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H88" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-7.8300325423042993E-3</v>
       </c>
       <c r="I88" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.0150927469656863E-2</v>
       </c>
     </row>
@@ -16231,23 +16231,23 @@
         <v>0.04</v>
       </c>
       <c r="E89">
-        <f>B89/B88-1</f>
+        <f t="shared" si="5"/>
         <v>-4.9688669165607324E-3</v>
       </c>
       <c r="F89">
-        <f>C89/C88-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H89" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-5.7091542497939018E-3</v>
       </c>
       <c r="I89" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -16265,23 +16265,23 @@
         <v>0.04</v>
       </c>
       <c r="E90">
-        <f>B90/B89-1</f>
+        <f t="shared" si="5"/>
         <v>1.005508981916603E-2</v>
       </c>
       <c r="F90">
-        <f>C90/C89-1</f>
+        <f t="shared" si="6"/>
         <v>-3.0309715339221444E-2</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H90" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.3148024859328604E-3</v>
       </c>
       <c r="I90" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.1050002672454613E-2</v>
       </c>
     </row>
@@ -16299,23 +16299,23 @@
         <v>0.04</v>
       </c>
       <c r="E91">
-        <f>B91/B90-1</f>
+        <f t="shared" si="5"/>
         <v>-6.5916087641704202E-4</v>
       </c>
       <c r="F91">
-        <f>C91/C90-1</f>
+        <f t="shared" si="6"/>
         <v>-3.1248984367382771E-2</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H91" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.3994482096502114E-3</v>
       </c>
       <c r="I91" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.198927170061594E-2</v>
       </c>
     </row>
@@ -16333,23 +16333,23 @@
         <v>0.04</v>
       </c>
       <c r="E92">
-        <f>B92/B91-1</f>
+        <f t="shared" si="5"/>
         <v>-1.6508903799586916E-2</v>
       </c>
       <c r="F92">
-        <f>C92/C91-1</f>
+        <f t="shared" si="6"/>
         <v>-6.4497190304454444E-3</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H92" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.7249191132820085E-2</v>
       </c>
       <c r="I92" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.1900063636786138E-3</v>
       </c>
     </row>
@@ -16367,23 +16367,23 @@
         <v>0.04</v>
       </c>
       <c r="E93">
-        <f>B93/B92-1</f>
+        <f t="shared" si="5"/>
         <v>-3.0491997857601261E-3</v>
       </c>
       <c r="F93">
-        <f>C93/C92-1</f>
+        <f t="shared" si="6"/>
         <v>-4.5457998835059632E-2</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H93" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.7894871189932955E-3</v>
       </c>
       <c r="I93" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-4.6198286168292801E-2</v>
       </c>
     </row>
@@ -16401,23 +16401,23 @@
         <v>0.04</v>
       </c>
       <c r="E94">
-        <f>B94/B93-1</f>
+        <f t="shared" si="5"/>
         <v>-4.3853335487242795E-3</v>
       </c>
       <c r="F94">
-        <f>C94/C93-1</f>
+        <f t="shared" si="6"/>
         <v>-3.4012522551204571E-2</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H94" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-5.1256208819574489E-3</v>
       </c>
       <c r="I94" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.4752809884437741E-2</v>
       </c>
     </row>
@@ -16435,23 +16435,23 @@
         <v>0.04</v>
       </c>
       <c r="E95">
-        <f>B95/B94-1</f>
+        <f t="shared" si="5"/>
         <v>3.2809491072946839E-2</v>
       </c>
       <c r="F95">
-        <f>C95/C94-1</f>
+        <f t="shared" si="6"/>
         <v>-0.1338002380298452</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H95" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.206920373971367E-2</v>
       </c>
       <c r="I95" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-0.13454052536307837</v>
       </c>
     </row>
@@ -16469,23 +16469,23 @@
         <v>0.04</v>
       </c>
       <c r="E96">
-        <f>B96/B95-1</f>
+        <f t="shared" si="5"/>
         <v>-8.6630036549040224E-4</v>
       </c>
       <c r="F96">
-        <f>C96/C95-1</f>
+        <f t="shared" si="6"/>
         <v>-6.5042540823336714E-2</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H96" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.6065876987235717E-3</v>
       </c>
       <c r="I96" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-6.5782828156569884E-2</v>
       </c>
     </row>
@@ -16503,23 +16503,23 @@
         <v>0.04</v>
       </c>
       <c r="E97">
-        <f>B97/B96-1</f>
+        <f t="shared" si="5"/>
         <v>-6.487453260080156E-3</v>
       </c>
       <c r="F97">
-        <f>C97/C96-1</f>
+        <f t="shared" si="6"/>
         <v>7.8260476368116949E-2</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H97" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-7.2277405933133254E-3</v>
       </c>
       <c r="I97" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.752018903488378E-2</v>
       </c>
     </row>
@@ -16537,23 +16537,23 @@
         <v>0.04</v>
       </c>
       <c r="E98">
-        <f>B98/B97-1</f>
+        <f t="shared" si="5"/>
         <v>2.6607577590403109E-2</v>
       </c>
       <c r="F98">
-        <f>C98/C97-1</f>
+        <f t="shared" si="6"/>
         <v>8.0642455757779175E-2</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H98" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.5867290257169939E-2</v>
       </c>
       <c r="I98" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.9902168424546005E-2</v>
       </c>
     </row>
@@ -16571,23 +16571,23 @@
         <v>0.04</v>
       </c>
       <c r="E99">
-        <f>B99/B98-1</f>
+        <f t="shared" si="5"/>
         <v>-6.0039204627657661E-3</v>
       </c>
       <c r="F99">
-        <f>C99/C98-1</f>
+        <f t="shared" si="6"/>
         <v>-0.11939733788660789</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H99" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-6.7442077959989355E-3</v>
       </c>
       <c r="I99" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-0.12013762521984106</v>
       </c>
     </row>
@@ -16605,23 +16605,23 @@
         <v>0.04</v>
       </c>
       <c r="E100">
-        <f>B100/B99-1</f>
+        <f t="shared" si="5"/>
         <v>6.2196264458516115E-3</v>
       </c>
       <c r="F100">
-        <f>C100/C99-1</f>
+        <f t="shared" si="6"/>
         <v>3.3899238726878167E-2</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H100" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.4793391126184421E-3</v>
       </c>
       <c r="I100" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.3158951393644998E-2</v>
       </c>
     </row>
@@ -16639,23 +16639,23 @@
         <v>0.04</v>
       </c>
       <c r="E101">
-        <f>B101/B100-1</f>
+        <f t="shared" si="5"/>
         <v>-7.7740532261252326E-3</v>
       </c>
       <c r="F101">
-        <f>C101/C100-1</f>
+        <f t="shared" si="6"/>
         <v>-3.2787758668456846E-2</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H101" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-8.5143405593584021E-3</v>
       </c>
       <c r="I101" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.3528046001690015E-2</v>
       </c>
     </row>
@@ -16673,23 +16673,23 @@
         <v>0.04</v>
       </c>
       <c r="E102">
-        <f>B102/B101-1</f>
+        <f t="shared" si="5"/>
         <v>-6.7447424783565468E-3</v>
       </c>
       <c r="F102">
-        <f>C102/C101-1</f>
+        <f t="shared" si="6"/>
         <v>-1.6955127852019913E-2</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H102" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-7.4850298115897163E-3</v>
       </c>
       <c r="I102" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.7695415185253083E-2</v>
       </c>
     </row>
@@ -16707,23 +16707,23 @@
         <v>0.04</v>
       </c>
       <c r="E103">
-        <f>B103/B102-1</f>
+        <f t="shared" si="5"/>
         <v>-6.1693656118977369E-3</v>
       </c>
       <c r="F103">
-        <f>C103/C102-1</f>
+        <f t="shared" si="6"/>
         <v>5.173148044379694E-2</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H103" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-6.9096529451309063E-3</v>
       </c>
       <c r="I103" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.0991193110563771E-2</v>
       </c>
     </row>
@@ -16741,23 +16741,23 @@
         <v>0.04</v>
       </c>
       <c r="E104">
-        <f>B104/B103-1</f>
+        <f t="shared" si="5"/>
         <v>-1.2864360483088255E-2</v>
       </c>
       <c r="F104">
-        <f>C104/C103-1</f>
+        <f t="shared" si="6"/>
         <v>-6.557551733691358E-2</v>
       </c>
       <c r="G104" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H104" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.3604647816321425E-2</v>
       </c>
       <c r="I104" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-6.631580467014675E-2</v>
       </c>
     </row>
@@ -16775,23 +16775,23 @@
         <v>0.04</v>
       </c>
       <c r="E105">
-        <f>B105/B104-1</f>
+        <f t="shared" si="5"/>
         <v>-7.1983334530089094E-3</v>
       </c>
       <c r="F105">
-        <f>C105/C104-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G105" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H105" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-7.9386207862420788E-3</v>
       </c>
       <c r="I105" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -16809,23 +16809,23 @@
         <v>0.04</v>
       </c>
       <c r="E106">
-        <f>B106/B105-1</f>
+        <f t="shared" si="5"/>
         <v>-9.8016021297925304E-3</v>
       </c>
       <c r="F106">
-        <f>C106/C105-1</f>
+        <f t="shared" si="6"/>
         <v>-1.7550061579163612E-2</v>
       </c>
       <c r="G106" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H106" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.05418894630257E-2</v>
       </c>
       <c r="I106" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.8290348912396781E-2</v>
       </c>
     </row>
@@ -16843,23 +16843,23 @@
         <v>0.04</v>
       </c>
       <c r="E107">
-        <f>B107/B106-1</f>
+        <f t="shared" si="5"/>
         <v>6.3218226281143153E-3</v>
       </c>
       <c r="F107">
-        <f>C107/C106-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G107" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H107" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.5815352948811459E-3</v>
       </c>
       <c r="I107" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -16877,23 +16877,23 @@
         <v>0.04</v>
       </c>
       <c r="E108">
-        <f>B108/B107-1</f>
+        <f t="shared" si="5"/>
         <v>1.7461049485367752E-3</v>
       </c>
       <c r="F108">
-        <f>C108/C107-1</f>
+        <f t="shared" si="6"/>
         <v>-5.3567490394994866E-2</v>
       </c>
       <c r="G108" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H108" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0058176153036058E-3</v>
       </c>
       <c r="I108" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-5.4307777728228035E-2</v>
       </c>
     </row>
@@ -16911,23 +16911,23 @@
         <v>0.04</v>
       </c>
       <c r="E109">
-        <f>B109/B108-1</f>
+        <f t="shared" si="5"/>
         <v>-4.7576785692525769E-3</v>
       </c>
       <c r="F109">
-        <f>C109/C108-1</f>
+        <f t="shared" si="6"/>
         <v>2.8305820598984566E-2</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H109" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-5.4979659024857463E-3</v>
       </c>
       <c r="I109" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.7565533265751396E-2</v>
       </c>
     </row>
@@ -16945,23 +16945,23 @@
         <v>0.04</v>
       </c>
       <c r="E110">
-        <f>B110/B109-1</f>
+        <f t="shared" si="5"/>
         <v>-2.0068752037740722E-3</v>
       </c>
       <c r="F110">
-        <f>C110/C109-1</f>
+        <f t="shared" si="6"/>
         <v>-3.6698232473821202E-2</v>
       </c>
       <c r="G110" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H110" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.7471625370072417E-3</v>
       </c>
       <c r="I110" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.7438519807054371E-2</v>
       </c>
     </row>
@@ -16979,23 +16979,23 @@
         <v>0.04</v>
       </c>
       <c r="E111">
-        <f>B111/B110-1</f>
+        <f t="shared" si="5"/>
         <v>-2.3981052302888273E-3</v>
       </c>
       <c r="F111">
-        <f>C111/C110-1</f>
+        <f t="shared" si="6"/>
         <v>5.7138258490262439E-2</v>
       </c>
       <c r="G111" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H111" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-3.1383925635219967E-3</v>
       </c>
       <c r="I111" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.639797115702927E-2</v>
       </c>
     </row>
@@ -17013,23 +17013,23 @@
         <v>0.04</v>
       </c>
       <c r="E112">
-        <f>B112/B111-1</f>
+        <f t="shared" si="5"/>
         <v>-8.3072089930292803E-3</v>
       </c>
       <c r="F112">
-        <f>C112/C111-1</f>
+        <f t="shared" si="6"/>
         <v>-4.5043567881570379E-2</v>
       </c>
       <c r="G112" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H112" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-9.0474963262624497E-3</v>
       </c>
       <c r="I112" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-4.5783855214803548E-2</v>
       </c>
     </row>
@@ -17047,23 +17047,23 @@
         <v>0.04</v>
       </c>
       <c r="E113">
-        <f>B113/B112-1</f>
+        <f t="shared" si="5"/>
         <v>-1.6709363281881329E-2</v>
       </c>
       <c r="F113">
-        <f>C113/C112-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G113" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H113" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.7449650615114498E-2</v>
       </c>
       <c r="I113" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -17081,23 +17081,23 @@
         <v>0.04</v>
       </c>
       <c r="E114">
-        <f>B114/B113-1</f>
+        <f t="shared" si="5"/>
         <v>-5.3289719680837955E-4</v>
       </c>
       <c r="F114">
-        <f>C114/C113-1</f>
+        <f t="shared" si="6"/>
         <v>0.13207338909465527</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H114" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.273184530041549E-3</v>
       </c>
       <c r="I114" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.1313331017614221</v>
       </c>
     </row>
@@ -17115,23 +17115,23 @@
         <v>0.04</v>
       </c>
       <c r="E115">
-        <f>B115/B114-1</f>
+        <f t="shared" si="5"/>
         <v>9.1917334552804597E-3</v>
       </c>
       <c r="F115">
-        <f>C115/C114-1</f>
+        <f t="shared" si="6"/>
         <v>-5.832710411994757E-2</v>
       </c>
       <c r="G115" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H115" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4514461220472903E-3</v>
       </c>
       <c r="I115" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-5.906739145318074E-2</v>
       </c>
     </row>
@@ -17149,23 +17149,23 @@
         <v>0.04</v>
       </c>
       <c r="E116">
-        <f>B116/B115-1</f>
+        <f t="shared" si="5"/>
         <v>-7.3196320047919095E-4</v>
       </c>
       <c r="F116">
-        <f>C116/C115-1</f>
+        <f t="shared" si="6"/>
         <v>-1.7705325402942784E-2</v>
       </c>
       <c r="G116" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H116" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.4722505337123604E-3</v>
       </c>
       <c r="I116" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.8445612736175954E-2</v>
       </c>
     </row>
@@ -17183,23 +17183,23 @@
         <v>0.04</v>
       </c>
       <c r="E117">
-        <f>B117/B116-1</f>
+        <f t="shared" si="5"/>
         <v>1.4866220382165674E-2</v>
       </c>
       <c r="F117">
-        <f>C117/C116-1</f>
+        <f t="shared" si="6"/>
         <v>-3.6037196664480464E-2</v>
       </c>
       <c r="G117" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H117" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4125933048932504E-2</v>
       </c>
       <c r="I117" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.6777483997713634E-2</v>
       </c>
     </row>
@@ -17217,23 +17217,23 @@
         <v>0.04</v>
       </c>
       <c r="E118">
-        <f>B118/B117-1</f>
+        <f t="shared" si="5"/>
         <v>1.0286576844705797E-2</v>
       </c>
       <c r="F118">
-        <f>C118/C117-1</f>
+        <f t="shared" si="6"/>
         <v>4.67274958387498E-2</v>
       </c>
       <c r="G118" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H118" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.5462895114726276E-3</v>
       </c>
       <c r="I118" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.598720850551663E-2</v>
       </c>
     </row>
@@ -17251,23 +17251,23 @@
         <v>0.04</v>
       </c>
       <c r="E119">
-        <f>B119/B118-1</f>
+        <f t="shared" si="5"/>
         <v>-9.3058961354500758E-3</v>
       </c>
       <c r="F119">
-        <f>C119/C118-1</f>
+        <f t="shared" si="6"/>
         <v>-1.7851961046045917E-2</v>
       </c>
       <c r="G119" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H119" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.0046183468683245E-2</v>
       </c>
       <c r="I119" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.8592248379279086E-2</v>
       </c>
     </row>
@@ -17285,23 +17285,23 @@
         <v>0.04</v>
       </c>
       <c r="E120">
-        <f>B120/B119-1</f>
+        <f t="shared" si="5"/>
         <v>1.310528923028631E-3</v>
       </c>
       <c r="F120">
-        <f>C120/C119-1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G120" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H120" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.7024158979546158E-4</v>
       </c>
       <c r="I120" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -17319,23 +17319,23 @@
         <v>0.04</v>
       </c>
       <c r="E121">
-        <f>B121/B120-1</f>
+        <f t="shared" si="5"/>
         <v>-2.1980897740130789E-2</v>
       </c>
       <c r="F121">
-        <f>C121/C120-1</f>
+        <f t="shared" si="6"/>
         <v>-1.8188264492111306E-2</v>
       </c>
       <c r="G121" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.2721185073363959E-2</v>
       </c>
       <c r="I121" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.8928551825344475E-2</v>
       </c>
     </row>
@@ -17353,23 +17353,23 @@
         <v>0.04</v>
       </c>
       <c r="E122">
-        <f>B122/B121-1</f>
+        <f t="shared" si="5"/>
         <v>4.2900553503788519E-3</v>
       </c>
       <c r="F122">
-        <f>C122/C121-1</f>
+        <f t="shared" si="6"/>
         <v>-3.7026337329673975E-2</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H122" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5497680171456825E-3</v>
       </c>
       <c r="I122" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.7766624662907144E-2</v>
       </c>
     </row>
@@ -17387,23 +17387,23 @@
         <v>0.04</v>
       </c>
       <c r="E123">
-        <f>B123/B122-1</f>
+        <f t="shared" si="5"/>
         <v>1.734266597588352E-3</v>
       </c>
       <c r="F123">
-        <f>C123/C122-1</f>
+        <f t="shared" si="6"/>
         <v>1.9225000000000048E-2</v>
       </c>
       <c r="G123" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H123" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.9397926435518258E-4</v>
       </c>
       <c r="I123" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8484712666766878E-2</v>
       </c>
     </row>
@@ -17421,23 +17421,23 @@
         <v>0.04</v>
       </c>
       <c r="E124">
-        <f>B124/B123-1</f>
+        <f t="shared" si="5"/>
         <v>2.4835165836454731E-2</v>
       </c>
       <c r="F124">
-        <f>C124/C123-1</f>
+        <f t="shared" si="6"/>
         <v>-9.4311854595403588E-3</v>
       </c>
       <c r="G124" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H124" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.4094878503221562E-2</v>
       </c>
       <c r="I124" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.0171472792773528E-2</v>
       </c>
     </row>
@@ -17455,23 +17455,23 @@
         <v>0.04</v>
       </c>
       <c r="E125">
-        <f>B125/B124-1</f>
+        <f t="shared" si="5"/>
         <v>2.6700802741408403E-4</v>
       </c>
       <c r="F125">
-        <f>C125/C124-1</f>
+        <f t="shared" si="6"/>
         <v>1.904195916750262E-2</v>
       </c>
       <c r="G125" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H125" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-4.7327930581908539E-4</v>
       </c>
       <c r="I125" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8301671834269451E-2</v>
       </c>
     </row>
@@ -17489,23 +17489,23 @@
         <v>0.04</v>
       </c>
       <c r="E126">
-        <f>B126/B125-1</f>
+        <f t="shared" si="5"/>
         <v>4.780921558733553E-4</v>
       </c>
       <c r="F126">
-        <f>C126/C125-1</f>
+        <f t="shared" si="6"/>
         <v>9.3430692407692195E-3</v>
       </c>
       <c r="G126" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H126" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.6219517735981412E-4</v>
       </c>
       <c r="I126" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.6027819075360501E-3</v>
       </c>
     </row>
@@ -17523,23 +17523,23 @@
         <v>0.04</v>
       </c>
       <c r="E127">
-        <f>B127/B126-1</f>
+        <f t="shared" si="5"/>
         <v>-1.2362102010816445E-2</v>
       </c>
       <c r="F127">
-        <f>C127/C126-1</f>
+        <f t="shared" si="6"/>
         <v>0.20371707833790764</v>
       </c>
       <c r="G127" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H127" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.3102389344049614E-2</v>
       </c>
       <c r="I127" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.20297679100467447</v>
       </c>
     </row>
@@ -17557,23 +17557,23 @@
         <v>0.04</v>
       </c>
       <c r="E128">
-        <f>B128/B127-1</f>
+        <f t="shared" si="5"/>
         <v>2.7334008436294965E-3</v>
       </c>
       <c r="F128">
-        <f>C128/C127-1</f>
+        <f t="shared" si="6"/>
         <v>-4.616000000000009E-2</v>
       </c>
       <c r="G128" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H128" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.9931135103963271E-3</v>
       </c>
       <c r="I128" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-4.6900287333233259E-2</v>
       </c>
     </row>
@@ -17591,23 +17591,23 @@
         <v>0.04</v>
       </c>
       <c r="E129">
-        <f>B129/B128-1</f>
+        <f t="shared" si="5"/>
         <v>-1.441274283883931E-2</v>
       </c>
       <c r="F129">
-        <f>C129/C128-1</f>
+        <f t="shared" si="6"/>
         <v>-6.4518158181665619E-2</v>
       </c>
       <c r="G129" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H129" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-1.5153030172072479E-2</v>
       </c>
       <c r="I129" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-6.5258445514898789E-2</v>
       </c>
     </row>
@@ -17625,23 +17625,23 @@
         <v>0.04</v>
       </c>
       <c r="E130">
-        <f>B130/B129-1</f>
+        <f t="shared" si="5"/>
         <v>-2.6544845489190783E-2</v>
       </c>
       <c r="F130">
-        <f>C130/C129-1</f>
+        <f t="shared" si="6"/>
         <v>6.0349658186708455E-2</v>
       </c>
       <c r="G130" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H130" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-2.7285132822423952E-2</v>
       </c>
       <c r="I130" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.9609370853475285E-2</v>
       </c>
     </row>
@@ -17659,23 +17659,23 @@
         <v>0.04</v>
       </c>
       <c r="E131">
-        <f>B131/B130-1</f>
+        <f t="shared" ref="E131:E194" si="10">B131/B130-1</f>
         <v>1.5303077669796439E-2</v>
       </c>
       <c r="F131">
-        <f>C131/C130-1</f>
+        <f t="shared" ref="F131:F194" si="11">C131/C130-1</f>
         <v>0.12194683718226496</v>
       </c>
       <c r="G131" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H131" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4562790336563269E-2</v>
       </c>
       <c r="I131" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.12120654984903179</v>
       </c>
     </row>
@@ -17693,23 +17693,23 @@
         <v>0.04</v>
       </c>
       <c r="E132">
-        <f>B132/B131-1</f>
+        <f t="shared" si="10"/>
         <v>-6.452295649713391E-3</v>
       </c>
       <c r="F132">
-        <f>C132/C131-1</f>
+        <f t="shared" si="11"/>
         <v>7.9715128164065119E-2</v>
       </c>
       <c r="G132" s="7">
-        <f t="shared" ref="G132:G195" si="6">(1+D132)^(1/53) -1</f>
+        <f t="shared" ref="G132:G195" si="12">(1+D132)^(1/53) -1</f>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H132" s="8">
-        <f t="shared" ref="H132:H195" si="7">E132-G132</f>
+        <f t="shared" ref="H132:H195" si="13">E132-G132</f>
         <v>-7.1925829829465604E-3</v>
       </c>
       <c r="I132" s="8">
-        <f t="shared" ref="I132:I195" si="8">F132-G132</f>
+        <f t="shared" ref="I132:I195" si="14">F132-G132</f>
         <v>7.8974840830831949E-2</v>
       </c>
     </row>
@@ -17727,23 +17727,23 @@
         <v>0.04</v>
       </c>
       <c r="E133">
-        <f>B133/B132-1</f>
+        <f t="shared" si="10"/>
         <v>-8.585531729430107E-3</v>
       </c>
       <c r="F133">
-        <f>C133/C132-1</f>
+        <f t="shared" si="11"/>
         <v>0.12080443222963844</v>
       </c>
       <c r="G133" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H133" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-9.3258190626632764E-3</v>
       </c>
       <c r="I133" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.12006414489640527</v>
       </c>
     </row>
@@ -17761,23 +17761,23 @@
         <v>0.04</v>
       </c>
       <c r="E134">
-        <f>B134/B133-1</f>
+        <f t="shared" si="10"/>
         <v>-3.1713647827827041E-2</v>
       </c>
       <c r="F134">
-        <f>C134/C133-1</f>
+        <f t="shared" si="11"/>
         <v>-0.13173648033255225</v>
       </c>
       <c r="G134" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H134" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.245393516106021E-2</v>
       </c>
       <c r="I134" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.13247676766578542</v>
       </c>
     </row>
@@ -17795,23 +17795,23 @@
         <v>0.04</v>
       </c>
       <c r="E135">
-        <f>B135/B134-1</f>
+        <f t="shared" si="10"/>
         <v>3.1023107116134874E-4</v>
       </c>
       <c r="F135">
-        <f>C135/C134-1</f>
+        <f t="shared" si="11"/>
         <v>-4.1376033280137614E-2</v>
       </c>
       <c r="G135" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H135" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-4.3005626207182068E-4</v>
       </c>
       <c r="I135" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-4.2116320613370783E-2</v>
       </c>
     </row>
@@ -17829,23 +17829,23 @@
         <v>0.04</v>
       </c>
       <c r="E136">
-        <f>B136/B135-1</f>
+        <f t="shared" si="10"/>
         <v>-9.328432218921423E-2</v>
       </c>
       <c r="F136">
-        <f>C136/C135-1</f>
+        <f t="shared" si="11"/>
         <v>-0.18705049428093112</v>
       </c>
       <c r="G136" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H136" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-9.40246095224474E-2</v>
       </c>
       <c r="I136" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.18779078161416429</v>
       </c>
     </row>
@@ -17863,23 +17863,23 @@
         <v>0.04</v>
       </c>
       <c r="E137">
-        <f>B137/B136-1</f>
+        <f t="shared" si="10"/>
         <v>-3.0838424242424223E-2</v>
       </c>
       <c r="F137">
-        <f>C137/C136-1</f>
+        <f t="shared" si="11"/>
         <v>-5.3104471773868789E-2</v>
       </c>
       <c r="G137" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H137" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.1578711575657392E-2</v>
       </c>
       <c r="I137" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-5.3844759107101958E-2</v>
       </c>
     </row>
@@ -17897,23 +17897,23 @@
         <v>0.04</v>
       </c>
       <c r="E138">
-        <f>B138/B137-1</f>
+        <f t="shared" si="10"/>
         <v>3.0545957978459937E-2</v>
       </c>
       <c r="F138">
-        <f>C138/C137-1</f>
+        <f t="shared" si="11"/>
         <v>5.6082714714422721E-2</v>
       </c>
       <c r="G138" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H138" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.9805670645226767E-2</v>
       </c>
       <c r="I138" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.5342427381189552E-2</v>
       </c>
     </row>
@@ -17931,23 +17931,23 @@
         <v>0.04</v>
       </c>
       <c r="E139">
-        <f>B139/B138-1</f>
+        <f t="shared" si="10"/>
         <v>-9.2621807287033286E-3</v>
       </c>
       <c r="F139">
-        <f>C139/C138-1</f>
+        <f t="shared" si="11"/>
         <v>6.193987782290078E-2</v>
       </c>
       <c r="G139" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H139" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.0002468061936498E-2</v>
       </c>
       <c r="I139" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.119959048966761E-2</v>
       </c>
     </row>
@@ -17965,23 +17965,23 @@
         <v>0.04</v>
       </c>
       <c r="E140">
-        <f>B140/B139-1</f>
+        <f t="shared" si="10"/>
         <v>2.017809004300597E-2</v>
       </c>
       <c r="F140">
-        <f>C140/C139-1</f>
+        <f t="shared" si="11"/>
         <v>-5.832710411994757E-2</v>
       </c>
       <c r="G140" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H140" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.94378027097728E-2</v>
       </c>
       <c r="I140" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-5.906739145318074E-2</v>
       </c>
     </row>
@@ -17999,23 +17999,23 @@
         <v>0.04</v>
       </c>
       <c r="E141">
-        <f>B141/B140-1</f>
+        <f t="shared" si="10"/>
         <v>3.6714523756905981E-2</v>
       </c>
       <c r="F141">
-        <f>C141/C140-1</f>
+        <f t="shared" si="11"/>
         <v>3.5399146370926005E-2</v>
       </c>
       <c r="G141" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H141" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.5974236423672812E-2</v>
       </c>
       <c r="I141" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.4658859037692835E-2</v>
       </c>
     </row>
@@ -18033,23 +18033,23 @@
         <v>0.04</v>
       </c>
       <c r="E142">
-        <f>B142/B141-1</f>
+        <f t="shared" si="10"/>
         <v>-2.6638900980376246E-2</v>
       </c>
       <c r="F142">
-        <f>C142/C141-1</f>
+        <f t="shared" si="11"/>
         <v>8.5444444444444656E-3</v>
       </c>
       <c r="G142" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H142" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-2.7379188313609415E-2</v>
       </c>
       <c r="I142" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7.8041571112112962E-3</v>
       </c>
     </row>
@@ -18067,23 +18067,23 @@
         <v>0.04</v>
       </c>
       <c r="E143">
-        <f>B143/B142-1</f>
+        <f t="shared" si="10"/>
         <v>2.7689202222535902E-2</v>
       </c>
       <c r="F143">
-        <f>C143/C142-1</f>
+        <f t="shared" si="11"/>
         <v>1.6944110874858032E-2</v>
       </c>
       <c r="G143" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H143" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.6948914889302733E-2</v>
       </c>
       <c r="I143" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.6203823541624862E-2</v>
       </c>
     </row>
@@ -18101,23 +18101,23 @@
         <v>0.04</v>
       </c>
       <c r="E144">
-        <f>B144/B143-1</f>
+        <f t="shared" si="10"/>
         <v>-1.8092293877824406E-2</v>
       </c>
       <c r="F144">
-        <f>C144/C143-1</f>
+        <f t="shared" si="11"/>
         <v>2.5003520859739892E-2</v>
       </c>
       <c r="G144" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H144" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.8832581211057575E-2</v>
       </c>
       <c r="I144" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.4263233526506722E-2</v>
       </c>
     </row>
@@ -18135,23 +18135,23 @@
         <v>0.04</v>
       </c>
       <c r="E145">
-        <f>B145/B144-1</f>
+        <f t="shared" si="10"/>
         <v>1.5285920740015557E-2</v>
       </c>
       <c r="F145">
-        <f>C145/C144-1</f>
+        <f t="shared" si="11"/>
         <v>-2.4393595095915099E-2</v>
       </c>
       <c r="G145" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H145" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.4545633406782388E-2</v>
       </c>
       <c r="I145" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-2.5133882429148269E-2</v>
       </c>
     </row>
@@ -18169,23 +18169,23 @@
         <v>0.04</v>
       </c>
       <c r="E146">
-        <f>B146/B145-1</f>
+        <f t="shared" si="10"/>
         <v>2.3741713504503936E-2</v>
       </c>
       <c r="F146">
-        <f>C146/C145-1</f>
+        <f t="shared" si="11"/>
         <v>6.6668833349583512E-2</v>
       </c>
       <c r="G146" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H146" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3001426171270767E-2</v>
       </c>
       <c r="I146" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.5928546016350342E-2</v>
       </c>
     </row>
@@ -18203,23 +18203,23 @@
         <v>0.04</v>
       </c>
       <c r="E147">
-        <f>B147/B146-1</f>
+        <f t="shared" si="10"/>
         <v>2.5397414840353294E-2</v>
       </c>
       <c r="F147">
-        <f>C147/C146-1</f>
+        <f t="shared" si="11"/>
         <v>0.11719360965255277</v>
       </c>
       <c r="G147" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H147" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4657127507120125E-2</v>
       </c>
       <c r="I147" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.1164533223193196</v>
       </c>
     </row>
@@ -18237,23 +18237,23 @@
         <v>0.04</v>
       </c>
       <c r="E148">
-        <f>B148/B147-1</f>
+        <f t="shared" si="10"/>
         <v>5.6392300016969266E-2</v>
       </c>
       <c r="F148">
-        <f>C148/C147-1</f>
+        <f t="shared" si="11"/>
         <v>-5.5945454545454631E-2</v>
       </c>
       <c r="G148" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H148" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.5652012683736096E-2</v>
       </c>
       <c r="I148" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-5.6685741878687801E-2</v>
       </c>
     </row>
@@ -18271,23 +18271,23 @@
         <v>0.04</v>
       </c>
       <c r="E149">
-        <f>B149/B148-1</f>
+        <f t="shared" si="10"/>
         <v>-6.6245181237134521E-3</v>
       </c>
       <c r="F149">
-        <f>C149/C148-1</f>
+        <f t="shared" si="11"/>
         <v>0.18517805211563299</v>
       </c>
       <c r="G149" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H149" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-7.3648054569466215E-3</v>
       </c>
       <c r="I149" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.18443776478239982</v>
       </c>
     </row>
@@ -18305,23 +18305,23 @@
         <v>0.04</v>
       </c>
       <c r="E150">
-        <f>B150/B149-1</f>
+        <f t="shared" si="10"/>
         <v>-2.507083317071146E-2</v>
       </c>
       <c r="F150">
-        <f>C150/C149-1</f>
+        <f t="shared" si="11"/>
         <v>-6.874614059605455E-2</v>
       </c>
       <c r="G150" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H150" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-2.5811120503944629E-2</v>
       </c>
       <c r="I150" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-6.948642792928772E-2</v>
       </c>
     </row>
@@ -18339,23 +18339,23 @@
         <v>0.04</v>
       </c>
       <c r="E151">
-        <f>B151/B150-1</f>
+        <f t="shared" si="10"/>
         <v>-1.2685266558621122E-2</v>
       </c>
       <c r="F151">
-        <f>C151/C150-1</f>
+        <f t="shared" si="11"/>
         <v>-0.10067617676569385</v>
       </c>
       <c r="G151" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H151" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.3425553891854292E-2</v>
       </c>
       <c r="I151" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.10141646409892702</v>
       </c>
     </row>
@@ -18373,23 +18373,23 @@
         <v>0.04</v>
       </c>
       <c r="E152">
-        <f>B152/B151-1</f>
+        <f t="shared" si="10"/>
         <v>4.3349421660434428E-2</v>
       </c>
       <c r="F152">
-        <f>C152/C151-1</f>
+        <f t="shared" si="11"/>
         <v>7.4634250455974271E-2</v>
       </c>
       <c r="G152" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H152" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.2609134327201259E-2</v>
       </c>
       <c r="I152" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7.3893963122741102E-2</v>
       </c>
     </row>
@@ -18407,23 +18407,23 @@
         <v>0.04</v>
       </c>
       <c r="E153">
-        <f>B153/B152-1</f>
+        <f t="shared" si="10"/>
         <v>2.5240679737367433E-2</v>
       </c>
       <c r="F153">
-        <f>C153/C152-1</f>
+        <f t="shared" si="11"/>
         <v>7.6384186911500507E-2</v>
       </c>
       <c r="G153" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H153" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4500392404134264E-2</v>
       </c>
       <c r="I153" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7.5643899578267337E-2</v>
       </c>
     </row>
@@ -18441,23 +18441,23 @@
         <v>0.04</v>
       </c>
       <c r="E154">
-        <f>B154/B153-1</f>
+        <f t="shared" si="10"/>
         <v>2.8206290179297877E-3</v>
       </c>
       <c r="F154">
-        <f>C154/C153-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G154" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H154" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0803416846966183E-3</v>
       </c>
       <c r="I154" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -18475,23 +18475,23 @@
         <v>0.04</v>
       </c>
       <c r="E155">
-        <f>B155/B154-1</f>
+        <f t="shared" si="10"/>
         <v>-4.2096378475778851E-3</v>
       </c>
       <c r="F155">
-        <f>C155/C154-1</f>
+        <f t="shared" si="11"/>
         <v>-3.2256982303111692E-2</v>
       </c>
       <c r="G155" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H155" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-4.9499251808110545E-3</v>
       </c>
       <c r="I155" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3.2997269636344861E-2</v>
       </c>
     </row>
@@ -18509,23 +18509,23 @@
         <v>0.04</v>
       </c>
       <c r="E156">
-        <f>B156/B155-1</f>
+        <f t="shared" si="10"/>
         <v>8.895273138335158E-3</v>
       </c>
       <c r="F156">
-        <f>C156/C155-1</f>
+        <f t="shared" si="11"/>
         <v>-1.3329404423490288E-2</v>
       </c>
       <c r="G156" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H156" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.1549858051019886E-3</v>
       </c>
       <c r="I156" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.4069691756723457E-2</v>
       </c>
     </row>
@@ -18543,23 +18543,23 @@
         <v>0.04</v>
       </c>
       <c r="E157">
-        <f>B157/B156-1</f>
+        <f t="shared" si="10"/>
         <v>-1.5968813717848862E-2</v>
       </c>
       <c r="F157">
-        <f>C157/C156-1</f>
+        <f t="shared" si="11"/>
         <v>4.7291955799940277E-2</v>
       </c>
       <c r="G157" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H157" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.6709101051082031E-2</v>
       </c>
       <c r="I157" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4.6551668466707108E-2</v>
       </c>
     </row>
@@ -18577,23 +18577,23 @@
         <v>0.04</v>
       </c>
       <c r="E158">
-        <f>B158/B157-1</f>
+        <f t="shared" si="10"/>
         <v>-8.586087971414802E-3</v>
       </c>
       <c r="F158">
-        <f>C158/C157-1</f>
+        <f t="shared" si="11"/>
         <v>1.2907825211775581E-2</v>
       </c>
       <c r="G158" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H158" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-9.3263753046479714E-3</v>
       </c>
       <c r="I158" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.2167537878542412E-2</v>
       </c>
     </row>
@@ -18611,23 +18611,23 @@
         <v>0.04</v>
       </c>
       <c r="E159">
-        <f>B159/B158-1</f>
+        <f t="shared" si="10"/>
         <v>8.0085065558959112E-3</v>
       </c>
       <c r="F159">
-        <f>C159/C158-1</f>
+        <f t="shared" si="11"/>
         <v>1.9102584272454148E-2</v>
       </c>
       <c r="G159" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H159" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.2682192226627418E-3</v>
       </c>
       <c r="I159" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.8362296939220979E-2</v>
       </c>
     </row>
@@ -18645,23 +18645,23 @@
         <v>0.04</v>
       </c>
       <c r="E160">
-        <f>B160/B159-1</f>
+        <f t="shared" si="10"/>
         <v>-3.2914447958666604E-2</v>
       </c>
       <c r="F160">
-        <f>C160/C159-1</f>
+        <f t="shared" si="11"/>
         <v>-4.9993499951249687E-2</v>
       </c>
       <c r="G160" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H160" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.3654735291899773E-2</v>
       </c>
       <c r="I160" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-5.0733787284482856E-2</v>
       </c>
     </row>
@@ -18679,23 +18679,23 @@
         <v>0.04</v>
       </c>
       <c r="E161">
-        <f>B161/B160-1</f>
+        <f t="shared" si="10"/>
         <v>-6.1302877892757124E-3</v>
       </c>
       <c r="F161">
-        <f>C161/C160-1</f>
+        <f t="shared" si="11"/>
         <v>3.2893442693054498E-2</v>
       </c>
       <c r="G161" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H161" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-6.8705751225088818E-3</v>
       </c>
       <c r="I161" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.2153155359821328E-2</v>
       </c>
     </row>
@@ -18713,23 +18713,23 @@
         <v>0.04</v>
       </c>
       <c r="E162">
-        <f>B162/B161-1</f>
+        <f t="shared" si="10"/>
         <v>-7.2632097350336933E-3</v>
       </c>
       <c r="F162">
-        <f>C162/C161-1</f>
+        <f t="shared" si="11"/>
         <v>6.3675280908179754E-3</v>
       </c>
       <c r="G162" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H162" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-8.0034970682668627E-3</v>
       </c>
       <c r="I162" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.627240757584806E-3</v>
       </c>
     </row>
@@ -18747,23 +18747,23 @@
         <v>0.04</v>
       </c>
       <c r="E163">
-        <f>B163/B162-1</f>
+        <f t="shared" si="10"/>
         <v>1.182861433623783E-3</v>
       </c>
       <c r="F163">
-        <f>C163/C162-1</f>
+        <f t="shared" si="11"/>
         <v>-6.3272392173640002E-3</v>
       </c>
       <c r="G163" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H163" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.4257410039061362E-4</v>
       </c>
       <c r="I163" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-7.0675265505971696E-3</v>
       </c>
     </row>
@@ -18781,23 +18781,23 @@
         <v>0.04</v>
       </c>
       <c r="E164">
-        <f>B164/B163-1</f>
+        <f t="shared" si="10"/>
         <v>1.6659763788522408E-3</v>
       </c>
       <c r="F164">
-        <f>C164/C163-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G164" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H164" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>9.2568904561907139E-4</v>
       </c>
       <c r="I164" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -18815,23 +18815,23 @@
         <v>0.04</v>
       </c>
       <c r="E165">
-        <f>B165/B164-1</f>
+        <f t="shared" si="10"/>
         <v>-5.8576181879320677E-3</v>
       </c>
       <c r="F165">
-        <f>C165/C164-1</f>
+        <f t="shared" si="11"/>
         <v>-3.1845920724689281E-2</v>
       </c>
       <c r="G165" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H165" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-6.5979055211652371E-3</v>
       </c>
       <c r="I165" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3.258620805792245E-2</v>
       </c>
     </row>
@@ -18849,23 +18849,23 @@
         <v>0.04</v>
       </c>
       <c r="E166">
-        <f>B166/B165-1</f>
+        <f t="shared" si="10"/>
         <v>2.0029278156745489E-2</v>
       </c>
       <c r="F166">
-        <f>C166/C165-1</f>
+        <f t="shared" si="11"/>
         <v>1.9730934033509229E-2</v>
       </c>
       <c r="G166" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H166" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.928899082351232E-2</v>
       </c>
       <c r="I166" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.8990646700276059E-2</v>
       </c>
     </row>
@@ -18883,23 +18883,23 @@
         <v>0.04</v>
       </c>
       <c r="E167">
-        <f>B167/B166-1</f>
+        <f t="shared" si="10"/>
         <v>-1.732284145179086E-2</v>
       </c>
       <c r="F167">
-        <f>C167/C166-1</f>
+        <f t="shared" si="11"/>
         <v>6.4581061813302476E-3</v>
       </c>
       <c r="G167" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H167" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.806312878502403E-2</v>
       </c>
       <c r="I167" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.7178188480970782E-3</v>
       </c>
     </row>
@@ -18917,23 +18917,23 @@
         <v>0.04</v>
       </c>
       <c r="E168">
-        <f>B168/B167-1</f>
+        <f t="shared" si="10"/>
         <v>-6.1176396478347383E-3</v>
       </c>
       <c r="F168">
-        <f>C168/C167-1</f>
+        <f t="shared" si="11"/>
         <v>6.4083333333333492E-3</v>
       </c>
       <c r="G168" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H168" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-6.8579269810679078E-3</v>
       </c>
       <c r="I168" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.6680460001001798E-3</v>
       </c>
     </row>
@@ -18951,23 +18951,23 @@
         <v>0.04</v>
       </c>
       <c r="E169">
-        <f>B169/B168-1</f>
+        <f t="shared" si="10"/>
         <v>-1.856634354861697E-2</v>
       </c>
       <c r="F169">
-        <f>C169/C168-1</f>
+        <f t="shared" si="11"/>
         <v>6.3675280908179754E-3</v>
       </c>
       <c r="G169" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H169" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.930663088185014E-2</v>
       </c>
       <c r="I169" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.627240757584806E-3</v>
       </c>
     </row>
@@ -18985,23 +18985,23 @@
         <v>0.04</v>
       </c>
       <c r="E170">
-        <f>B170/B169-1</f>
+        <f t="shared" si="10"/>
         <v>3.5960432929935893E-2</v>
       </c>
       <c r="F170">
-        <f>C170/C169-1</f>
+        <f t="shared" si="11"/>
         <v>7.5951554246408648E-2</v>
       </c>
       <c r="G170" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H170" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.5220145596702723E-2</v>
       </c>
       <c r="I170" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7.5211266913175479E-2</v>
       </c>
     </row>
@@ -19019,23 +19019,23 @@
         <v>0.04</v>
       </c>
       <c r="E171">
-        <f>B171/B170-1</f>
+        <f t="shared" si="10"/>
         <v>4.6096394743856628E-2</v>
       </c>
       <c r="F171">
-        <f>C171/C170-1</f>
+        <f t="shared" si="11"/>
         <v>-1.1768844297960435E-2</v>
       </c>
       <c r="G171" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H171" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.5356107410623459E-2</v>
       </c>
       <c r="I171" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.2509131631193604E-2</v>
       </c>
     </row>
@@ -19053,23 +19053,23 @@
         <v>0.04</v>
       </c>
       <c r="E172">
-        <f>B172/B171-1</f>
+        <f t="shared" si="10"/>
         <v>2.5539942697541118E-3</v>
       </c>
       <c r="F172">
-        <f>C172/C171-1</f>
+        <f t="shared" si="11"/>
         <v>7.1430782326085129E-2</v>
       </c>
       <c r="G172" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H172" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.8137069365209424E-3</v>
       </c>
       <c r="I172" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7.069049499285196E-2</v>
       </c>
     </row>
@@ -19087,23 +19087,23 @@
         <v>0.04</v>
       </c>
       <c r="E173">
-        <f>B173/B172-1</f>
+        <f t="shared" si="10"/>
         <v>8.6839002352940842E-3</v>
       </c>
       <c r="F173">
-        <f>C173/C172-1</f>
+        <f t="shared" si="11"/>
         <v>-6.1107459862343894E-2</v>
       </c>
       <c r="G173" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H173" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.9436129020609147E-3</v>
       </c>
       <c r="I173" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-6.1847747195577063E-2</v>
       </c>
     </row>
@@ -19121,23 +19121,23 @@
         <v>0.04</v>
       </c>
       <c r="E174">
-        <f>B174/B173-1</f>
+        <f t="shared" si="10"/>
         <v>8.8704273487609786E-3</v>
       </c>
       <c r="F174">
-        <f>C174/C173-1</f>
+        <f t="shared" si="11"/>
         <v>2.3661538461538401E-2</v>
       </c>
       <c r="G174" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H174" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.1301400155278092E-3</v>
       </c>
       <c r="I174" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.2921251128305231E-2</v>
       </c>
     </row>
@@ -19155,23 +19155,23 @@
         <v>0.04</v>
       </c>
       <c r="E175">
-        <f>B175/B174-1</f>
+        <f t="shared" si="10"/>
         <v>3.8678041081649406E-2</v>
       </c>
       <c r="F175">
-        <f>C175/C174-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G175" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H175" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.7937753748416236E-2</v>
       </c>
       <c r="I175" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -19189,23 +19189,23 @@
         <v>0.04</v>
       </c>
       <c r="E176">
-        <f>B176/B175-1</f>
+        <f t="shared" si="10"/>
         <v>-1.9049238883381281E-2</v>
       </c>
       <c r="F176">
-        <f>C176/C175-1</f>
+        <f t="shared" si="11"/>
         <v>5.786167302894496E-3</v>
       </c>
       <c r="G176" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H176" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.978952621661445E-2</v>
       </c>
       <c r="I176" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.0458799696613266E-3</v>
       </c>
     </row>
@@ -19223,23 +19223,23 @@
         <v>0.04</v>
       </c>
       <c r="E177">
-        <f>B177/B176-1</f>
+        <f t="shared" si="10"/>
         <v>-6.8502357463600116E-3</v>
       </c>
       <c r="F177">
-        <f>C177/C176-1</f>
+        <f t="shared" si="11"/>
         <v>-1.149828907849304E-2</v>
       </c>
       <c r="G177" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H177" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-7.5905230795931811E-3</v>
       </c>
       <c r="I177" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.223857641172621E-2</v>
       </c>
     </row>
@@ -19257,23 +19257,23 @@
         <v>0.04</v>
       </c>
       <c r="E178">
-        <f>B178/B177-1</f>
+        <f t="shared" si="10"/>
         <v>-8.5061770722887342E-3</v>
       </c>
       <c r="F178">
-        <f>C178/C177-1</f>
+        <f t="shared" si="11"/>
         <v>5.8122397152078342E-3</v>
       </c>
       <c r="G178" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H178" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-9.2464644055219036E-3</v>
       </c>
       <c r="I178" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>5.0719523819746648E-3</v>
       </c>
     </row>
@@ -19291,23 +19291,23 @@
         <v>0.04</v>
       </c>
       <c r="E179">
-        <f>B179/B178-1</f>
+        <f t="shared" si="10"/>
         <v>3.6749897943870735E-3</v>
       </c>
       <c r="F179">
-        <f>C179/C178-1</f>
+        <f t="shared" si="11"/>
         <v>2.3122125702605967E-2</v>
       </c>
       <c r="G179" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H179" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.9347024611539041E-3</v>
       </c>
       <c r="I179" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.2381838369372797E-2</v>
       </c>
     </row>
@@ -19325,23 +19325,23 @@
         <v>0.04</v>
       </c>
       <c r="E180">
-        <f>B180/B179-1</f>
+        <f t="shared" si="10"/>
         <v>-3.7839634232722519E-3</v>
       </c>
       <c r="F180">
-        <f>C180/C179-1</f>
+        <f t="shared" si="11"/>
         <v>0.14689356826511335</v>
       </c>
       <c r="G180" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H180" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-4.5242507565054213E-3</v>
       </c>
       <c r="I180" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.14615328093188018</v>
       </c>
     </row>
@@ -19359,23 +19359,23 @@
         <v>0.04</v>
       </c>
       <c r="E181">
-        <f>B181/B180-1</f>
+        <f t="shared" si="10"/>
         <v>-1.8604691928109207E-2</v>
       </c>
       <c r="F181">
-        <f>C181/C180-1</f>
+        <f t="shared" si="11"/>
         <v>0.11823019730648787</v>
       </c>
       <c r="G181" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H181" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.9344979261342377E-2</v>
       </c>
       <c r="I181" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.1174899099732547</v>
       </c>
     </row>
@@ -19393,23 +19393,23 @@
         <v>0.04</v>
       </c>
       <c r="E182">
-        <f>B182/B181-1</f>
+        <f t="shared" si="10"/>
         <v>-1.9001193801127303E-2</v>
       </c>
       <c r="F182">
-        <f>C182/C181-1</f>
+        <f t="shared" si="11"/>
         <v>0.21585774418005332</v>
       </c>
       <c r="G182" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H182" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.9741481134360472E-2</v>
       </c>
       <c r="I182" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.21511745684682015</v>
       </c>
     </row>
@@ -19427,23 +19427,23 @@
         <v>0.04</v>
       </c>
       <c r="E183">
-        <f>B183/B182-1</f>
+        <f t="shared" si="10"/>
         <v>7.8076997016185423E-3</v>
       </c>
       <c r="F183">
-        <f>C183/C182-1</f>
+        <f t="shared" si="11"/>
         <v>0.59420556081523457</v>
       </c>
       <c r="G183" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H183" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.0674123683853729E-3</v>
       </c>
       <c r="I183" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.5934652734820014</v>
       </c>
     </row>
@@ -19461,23 +19461,23 @@
         <v>0.04</v>
       </c>
       <c r="E184">
-        <f>B184/B183-1</f>
+        <f t="shared" si="10"/>
         <v>1.3169671762320201E-2</v>
       </c>
       <c r="F184">
-        <f>C184/C183-1</f>
+        <f t="shared" si="11"/>
         <v>7.9545353822153775E-2</v>
       </c>
       <c r="G184" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H184" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.2429384429087031E-2</v>
       </c>
       <c r="I184" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7.8805066488920605E-2</v>
       </c>
     </row>
@@ -19495,23 +19495,23 @@
         <v>0.04</v>
       </c>
       <c r="E185">
-        <f>B185/B184-1</f>
+        <f t="shared" si="10"/>
         <v>-9.0595275796105934E-3</v>
       </c>
       <c r="F185">
-        <f>C185/C184-1</f>
+        <f t="shared" si="11"/>
         <v>0.26947540122172842</v>
       </c>
       <c r="G185" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H185" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-9.7998149128437628E-3</v>
       </c>
       <c r="I185" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.26873511388849525</v>
       </c>
     </row>
@@ -19529,23 +19529,23 @@
         <v>0.04</v>
       </c>
       <c r="E186">
-        <f>B186/B185-1</f>
+        <f t="shared" si="10"/>
         <v>-4.5302024413500508E-3</v>
       </c>
       <c r="F186">
-        <f>C186/C185-1</f>
+        <f t="shared" si="11"/>
         <v>-3.8144125420937036E-2</v>
       </c>
       <c r="G186" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H186" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-5.2704897745832202E-3</v>
       </c>
       <c r="I186" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3.8884412754170206E-2</v>
       </c>
     </row>
@@ -19563,23 +19563,23 @@
         <v>0.04</v>
       </c>
       <c r="E187">
-        <f>B187/B186-1</f>
+        <f t="shared" si="10"/>
         <v>1.4178415465061045E-2</v>
       </c>
       <c r="F187">
-        <f>C187/C186-1</f>
+        <f t="shared" si="11"/>
         <v>-2.5861083529641338E-2</v>
       </c>
       <c r="G187" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H187" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.3438128131827876E-2</v>
       </c>
       <c r="I187" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-2.6601370862874507E-2</v>
       </c>
     </row>
@@ -19597,23 +19597,23 @@
         <v>0.04</v>
       </c>
       <c r="E188">
-        <f>B188/B187-1</f>
+        <f t="shared" si="10"/>
         <v>9.7304864939207203E-3</v>
       </c>
       <c r="F188">
-        <f>C188/C187-1</f>
+        <f t="shared" si="11"/>
         <v>8.8492113709834896E-3</v>
       </c>
       <c r="G188" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H188" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.9901991606875509E-3</v>
       </c>
       <c r="I188" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>8.1089240377503202E-3</v>
       </c>
     </row>
@@ -19631,23 +19631,23 @@
         <v>0.04</v>
       </c>
       <c r="E189">
-        <f>B189/B188-1</f>
+        <f t="shared" si="10"/>
         <v>6.4987716600508616E-3</v>
       </c>
       <c r="F189">
-        <f>C189/C188-1</f>
+        <f t="shared" si="11"/>
         <v>-0.15438545275406468</v>
       </c>
       <c r="G189" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H189" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.7584843268176922E-3</v>
       </c>
       <c r="I189" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-0.15512574008729785</v>
       </c>
     </row>
@@ -19665,23 +19665,23 @@
         <v>0.04</v>
       </c>
       <c r="E190">
-        <f>B190/B189-1</f>
+        <f t="shared" si="10"/>
         <v>-1.5231859683480953E-2</v>
       </c>
       <c r="F190">
-        <f>C190/C189-1</f>
+        <f t="shared" si="11"/>
         <v>-7.6764778069364104E-2</v>
       </c>
       <c r="G190" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H190" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.5972147016714122E-2</v>
       </c>
       <c r="I190" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-7.7505065402597273E-2</v>
       </c>
     </row>
@@ -19699,23 +19699,23 @@
         <v>0.04</v>
       </c>
       <c r="E191">
-        <f>B191/B190-1</f>
+        <f t="shared" si="10"/>
         <v>-1.0034886262482723E-2</v>
       </c>
       <c r="F191">
-        <f>C191/C190-1</f>
+        <f t="shared" si="11"/>
         <v>6.7416091403331047E-2</v>
       </c>
       <c r="G191" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H191" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-1.0775173595715892E-2</v>
       </c>
       <c r="I191" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.6675804070097877E-2</v>
       </c>
     </row>
@@ -19733,23 +19733,23 @@
         <v>0.04</v>
       </c>
       <c r="E192">
-        <f>B192/B191-1</f>
+        <f t="shared" si="10"/>
         <v>1.6967877381795171E-2</v>
       </c>
       <c r="F192">
-        <f>C192/C191-1</f>
+        <f t="shared" si="11"/>
         <v>-1.6842554682197308E-2</v>
       </c>
       <c r="G192" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H192" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.6227590048562002E-2</v>
       </c>
       <c r="I192" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1.7582842015430478E-2</v>
       </c>
     </row>
@@ -19767,23 +19767,23 @@
         <v>0.04</v>
       </c>
       <c r="E193">
-        <f>B193/B192-1</f>
+        <f t="shared" si="10"/>
         <v>-2.4003690494650565E-3</v>
       </c>
       <c r="F193">
-        <f>C193/C192-1</f>
+        <f t="shared" si="11"/>
         <v>-4.4968404643264792E-2</v>
       </c>
       <c r="G193" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H193" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-3.1406563826982259E-3</v>
       </c>
       <c r="I193" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-4.5708691976497962E-2</v>
       </c>
     </row>
@@ -19801,23 +19801,23 @@
         <v>0.04</v>
       </c>
       <c r="E194">
-        <f>B194/B193-1</f>
+        <f t="shared" si="10"/>
         <v>3.1117646230649498E-5</v>
       </c>
       <c r="F194">
-        <f>C194/C193-1</f>
+        <f t="shared" si="11"/>
         <v>-6.7244575545942764E-3</v>
       </c>
       <c r="G194" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H194" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-7.0916968700251992E-4</v>
       </c>
       <c r="I194" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-7.4647448878274458E-3</v>
       </c>
     </row>
@@ -19835,23 +19835,23 @@
         <v>0.04</v>
       </c>
       <c r="E195">
-        <f>B195/B194-1</f>
+        <f t="shared" ref="E195:E263" si="15">B195/B194-1</f>
         <v>-4.2153091973994306E-3</v>
       </c>
       <c r="F195">
-        <f>C195/C194-1</f>
+        <f t="shared" ref="F195:F263" si="16">C195/C194-1</f>
         <v>-3.6118308883730577E-2</v>
       </c>
       <c r="G195" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H195" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>-4.9555965306326E-3</v>
       </c>
       <c r="I195" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3.6858596216963746E-2</v>
       </c>
     </row>
@@ -19869,23 +19869,23 @@
         <v>0.04</v>
       </c>
       <c r="E196">
-        <f>B196/B195-1</f>
+        <f t="shared" si="15"/>
         <v>-8.8659025300273919E-3</v>
       </c>
       <c r="F196">
-        <f>C196/C195-1</f>
+        <f t="shared" si="16"/>
         <v>-1.4050374321456727E-2</v>
       </c>
       <c r="G196" s="7">
-        <f t="shared" ref="G196:G259" si="9">(1+D196)^(1/53) -1</f>
+        <f t="shared" ref="G196:G259" si="17">(1+D196)^(1/53) -1</f>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H196" s="8">
-        <f t="shared" ref="H196:H259" si="10">E196-G196</f>
+        <f t="shared" ref="H196:H259" si="18">E196-G196</f>
         <v>-9.6061898632605613E-3</v>
       </c>
       <c r="I196" s="8">
-        <f t="shared" ref="I196:I259" si="11">F196-G196</f>
+        <f t="shared" ref="I196:I259" si="19">F196-G196</f>
         <v>-1.4790661654689896E-2</v>
       </c>
     </row>
@@ -19903,23 +19903,23 @@
         <v>0.04</v>
       </c>
       <c r="E197">
-        <f>B197/B196-1</f>
+        <f t="shared" si="15"/>
         <v>-3.1055662554240193E-3</v>
       </c>
       <c r="F197">
-        <f>C197/C196-1</f>
+        <f t="shared" si="16"/>
         <v>-8.0760608437343673E-2</v>
       </c>
       <c r="G197" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H197" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-3.8458535886571887E-3</v>
       </c>
       <c r="I197" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-8.1500895770576842E-2</v>
       </c>
     </row>
@@ -19937,23 +19937,23 @@
         <v>0.04</v>
       </c>
       <c r="E198">
-        <f>B198/B197-1</f>
+        <f t="shared" si="15"/>
         <v>-1.2859221837838053E-2</v>
       </c>
       <c r="F198">
-        <f>C198/C197-1</f>
+        <f t="shared" si="16"/>
         <v>-2.0672372787982174E-2</v>
       </c>
       <c r="G198" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H198" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.3599509171071222E-2</v>
       </c>
       <c r="I198" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-2.1412660121215343E-2</v>
       </c>
     </row>
@@ -19971,23 +19971,23 @@
         <v>0.04</v>
       </c>
       <c r="E199">
-        <f>B199/B198-1</f>
+        <f t="shared" si="15"/>
         <v>2.0657096277030051E-2</v>
       </c>
       <c r="F199">
-        <f>C199/C198-1</f>
+        <f t="shared" si="16"/>
         <v>-2.6384210634634364E-2</v>
       </c>
       <c r="G199" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H199" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1.9916808943796882E-2</v>
       </c>
       <c r="I199" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-2.7124497967867534E-2</v>
       </c>
     </row>
@@ -20005,23 +20005,23 @@
         <v>0.04</v>
       </c>
       <c r="E200">
-        <f>B200/B199-1</f>
+        <f t="shared" si="15"/>
         <v>-1.0028593482154902E-2</v>
       </c>
       <c r="F200">
-        <f>C200/C199-1</f>
+        <f t="shared" si="16"/>
         <v>1.8968031960992837E-2</v>
       </c>
       <c r="G200" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H200" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.0768880815388071E-2</v>
       </c>
       <c r="I200" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.8227744627759668E-2</v>
       </c>
     </row>
@@ -20039,23 +20039,23 @@
         <v>0.04</v>
       </c>
       <c r="E201">
-        <f>B201/B200-1</f>
+        <f t="shared" si="15"/>
         <v>-2.084270709955538E-3</v>
       </c>
       <c r="F201">
-        <f>C201/C200-1</f>
+        <f t="shared" si="16"/>
         <v>0.27659648030978823</v>
       </c>
       <c r="G201" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H201" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.8245580431887074E-3</v>
       </c>
       <c r="I201" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.27585619297655506</v>
       </c>
     </row>
@@ -20073,23 +20073,23 @@
         <v>0.04</v>
       </c>
       <c r="E202">
-        <f>B202/B201-1</f>
+        <f t="shared" si="15"/>
         <v>8.8181611393016723E-3</v>
       </c>
       <c r="F202">
-        <f>C202/C201-1</f>
+        <f t="shared" si="16"/>
         <v>0.10416813368361177</v>
       </c>
       <c r="G202" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H202" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8.0778738060685029E-3</v>
       </c>
       <c r="I202" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.1034278463503786</v>
       </c>
     </row>
@@ -20107,23 +20107,23 @@
         <v>0.04</v>
       </c>
       <c r="E203">
-        <f>B203/B202-1</f>
+        <f t="shared" si="15"/>
         <v>-1.8482737544033179E-2</v>
       </c>
       <c r="F203">
-        <f>C203/C202-1</f>
+        <f t="shared" si="16"/>
         <v>0.27358398006338103</v>
       </c>
       <c r="G203" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H203" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.9223024877266348E-2</v>
       </c>
       <c r="I203" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.27284369273014786</v>
       </c>
     </row>
@@ -20141,23 +20141,23 @@
         <v>0.04</v>
       </c>
       <c r="E204">
-        <f>B204/B203-1</f>
+        <f t="shared" si="15"/>
         <v>-1.6881717460240031E-2</v>
       </c>
       <c r="F204">
-        <f>C204/C203-1</f>
+        <f t="shared" si="16"/>
         <v>0.92889085761608547</v>
       </c>
       <c r="G204" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H204" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.76220047934732E-2</v>
       </c>
       <c r="I204" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.92815057028285231</v>
       </c>
     </row>
@@ -20175,23 +20175,23 @@
         <v>0.04</v>
       </c>
       <c r="E205">
-        <f>B205/B204-1</f>
+        <f t="shared" si="15"/>
         <v>-8.32818351966369E-3</v>
       </c>
       <c r="F205">
-        <f>C205/C204-1</f>
+        <f t="shared" si="16"/>
         <v>0.29800367035499398</v>
       </c>
       <c r="G205" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H205" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.0684708528968594E-3</v>
       </c>
       <c r="I205" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.29726338302176081</v>
       </c>
     </row>
@@ -20209,23 +20209,23 @@
         <v>0.04</v>
       </c>
       <c r="E206">
-        <f>B206/B205-1</f>
+        <f t="shared" si="15"/>
         <v>1.2495390278575158E-3</v>
       </c>
       <c r="F206">
-        <f>C206/C205-1</f>
+        <f t="shared" si="16"/>
         <v>5.7987692307692296E-2</v>
       </c>
       <c r="G206" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H206" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5.0925169462434638E-4</v>
       </c>
       <c r="I206" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.7247404974459126E-2</v>
       </c>
     </row>
@@ -20243,23 +20243,23 @@
         <v>0.04</v>
       </c>
       <c r="E207">
-        <f>B207/B206-1</f>
+        <f t="shared" si="15"/>
         <v>6.3052454719314532E-4</v>
       </c>
       <c r="F207">
-        <f>C207/C206-1</f>
+        <f t="shared" si="16"/>
         <v>1.5660353763021773E-2</v>
       </c>
       <c r="G207" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H207" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.097627860400241E-4</v>
       </c>
       <c r="I207" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.4920066429788603E-2</v>
       </c>
     </row>
@@ -20277,23 +20277,23 @@
         <v>0.04</v>
       </c>
       <c r="E208">
-        <f>B208/B207-1</f>
+        <f t="shared" si="15"/>
         <v>-1.8930818487710943E-2</v>
       </c>
       <c r="F208">
-        <f>C208/C207-1</f>
+        <f t="shared" si="16"/>
         <v>0.25660755818323566</v>
       </c>
       <c r="G208" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H208" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.9671105820944113E-2</v>
       </c>
       <c r="I208" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.25586727085000249</v>
       </c>
     </row>
@@ -20311,23 +20311,23 @@
         <v>0.04</v>
       </c>
       <c r="E209">
-        <f>B209/B208-1</f>
+        <f t="shared" si="15"/>
         <v>-3.2115128309088137E-3</v>
       </c>
       <c r="F209">
-        <f>C209/C208-1</f>
+        <f t="shared" si="16"/>
         <v>7.8878467617341741E-2</v>
       </c>
       <c r="G209" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H209" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-3.9518001641419831E-3</v>
       </c>
       <c r="I209" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7.8138180284108572E-2</v>
       </c>
     </row>
@@ -20345,23 +20345,23 @@
         <v>0.04</v>
       </c>
       <c r="E210">
-        <f>B210/B209-1</f>
+        <f t="shared" si="15"/>
         <v>1.0276503890758182E-2</v>
       </c>
       <c r="F210">
-        <f>C210/C209-1</f>
+        <f t="shared" si="16"/>
         <v>0.10722994372298489</v>
       </c>
       <c r="G210" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H210" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9.5362165575250124E-3</v>
       </c>
       <c r="I210" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.10648965638975172</v>
       </c>
     </row>
@@ -20379,23 +20379,23 @@
         <v>0.04</v>
       </c>
       <c r="E211">
-        <f>B211/B210-1</f>
+        <f t="shared" si="15"/>
         <v>8.5841195186808772E-3</v>
       </c>
       <c r="F211">
-        <f>C211/C210-1</f>
+        <f t="shared" si="16"/>
         <v>-0.13206159692082153</v>
       </c>
       <c r="G211" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H211" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.8438321854477078E-3</v>
       </c>
       <c r="I211" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-0.1328018842540547</v>
       </c>
     </row>
@@ -20413,23 +20413,23 @@
         <v>0.04</v>
       </c>
       <c r="E212">
-        <f>B212/B211-1</f>
+        <f t="shared" si="15"/>
         <v>4.7515532382133019E-2</v>
       </c>
       <c r="F212">
-        <f>C212/C211-1</f>
+        <f t="shared" si="16"/>
         <v>0.2299236263736264</v>
       </c>
       <c r="G212" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H212" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4.6775245048899849E-2</v>
       </c>
       <c r="I212" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.22918333904039323</v>
       </c>
     </row>
@@ -20447,23 +20447,23 @@
         <v>0.04</v>
       </c>
       <c r="E213">
-        <f>B213/B212-1</f>
+        <f t="shared" si="15"/>
         <v>-6.1005998091878677E-4</v>
       </c>
       <c r="F213">
-        <f>C213/C212-1</f>
+        <f t="shared" si="16"/>
         <v>3.8488050495407267E-2</v>
       </c>
       <c r="G213" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H213" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.3503473141519562E-3</v>
       </c>
       <c r="I213" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.7747763162174097E-2</v>
       </c>
     </row>
@@ -20481,23 +20481,23 @@
         <v>0.04</v>
       </c>
       <c r="E214">
-        <f>B214/B213-1</f>
+        <f t="shared" si="15"/>
         <v>-8.3186846700535888E-3</v>
       </c>
       <c r="F214">
-        <f>C214/C213-1</f>
+        <f t="shared" si="16"/>
         <v>5.5592431434882794E-2</v>
       </c>
       <c r="G214" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H214" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.0589720032867582E-3</v>
       </c>
       <c r="I214" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.4852144101649625E-2</v>
       </c>
     </row>
@@ -20515,23 +20515,23 @@
         <v>0.04</v>
       </c>
       <c r="E215">
-        <f>B215/B214-1</f>
+        <f t="shared" si="15"/>
         <v>-1.742416512071987E-2</v>
       </c>
       <c r="F215">
-        <f>C215/C214-1</f>
+        <f t="shared" si="16"/>
         <v>0.12915358176511482</v>
       </c>
       <c r="G215" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H215" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.8164452453953039E-2</v>
       </c>
       <c r="I215" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.12841329443188165</v>
       </c>
     </row>
@@ -20549,23 +20549,23 @@
         <v>0.04</v>
       </c>
       <c r="E216">
-        <f>B216/B215-1</f>
+        <f t="shared" si="15"/>
         <v>-1.0623083411646861E-2</v>
       </c>
       <c r="F216">
-        <f>C216/C215-1</f>
+        <f t="shared" si="16"/>
         <v>5.3303613545553574E-2</v>
       </c>
       <c r="G216" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H216" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.136337074488003E-2</v>
       </c>
       <c r="I216" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.2563326212320405E-2</v>
       </c>
     </row>
@@ -20583,23 +20583,23 @@
         <v>0.04</v>
       </c>
       <c r="E217">
-        <f>B217/B216-1</f>
+        <f t="shared" si="15"/>
         <v>-4.9476382831541432E-3</v>
       </c>
       <c r="F217">
-        <f>C217/C216-1</f>
+        <f t="shared" si="16"/>
         <v>-5.8513374000886187E-2</v>
       </c>
       <c r="G217" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H217" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-5.6879256163873126E-3</v>
       </c>
       <c r="I217" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-5.9253661334119356E-2</v>
       </c>
     </row>
@@ -20617,23 +20617,23 @@
         <v>0.04</v>
       </c>
       <c r="E218">
-        <f>B218/B217-1</f>
+        <f t="shared" si="15"/>
         <v>2.5858026682646251E-2</v>
       </c>
       <c r="F218">
-        <f>C218/C217-1</f>
+        <f t="shared" si="16"/>
         <v>0.13773778138161052</v>
       </c>
       <c r="G218" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H218" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.5117739349413082E-2</v>
       </c>
       <c r="I218" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.13699749404837736</v>
       </c>
     </row>
@@ -20651,23 +20651,23 @@
         <v>0.04</v>
       </c>
       <c r="E219">
-        <f>B219/B218-1</f>
+        <f t="shared" si="15"/>
         <v>2.1983505641278711E-2</v>
       </c>
       <c r="F219">
-        <f>C219/C218-1</f>
+        <f t="shared" si="16"/>
         <v>0.10728361663680563</v>
       </c>
       <c r="G219" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H219" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.1243218308045542E-2</v>
       </c>
       <c r="I219" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.10654332930357246</v>
       </c>
     </row>
@@ -20685,23 +20685,23 @@
         <v>0.04</v>
       </c>
       <c r="E220">
-        <f>B220/B219-1</f>
+        <f t="shared" si="15"/>
         <v>-6.3819060583406584E-3</v>
       </c>
       <c r="F220">
-        <f>C220/C219-1</f>
+        <f t="shared" si="16"/>
         <v>4.0000138666685281E-2</v>
       </c>
       <c r="G220" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H220" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-7.1221933915738278E-3</v>
       </c>
       <c r="I220" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.9259851333452112E-2</v>
       </c>
     </row>
@@ -20719,23 +20719,23 @@
         <v>0.04</v>
       </c>
       <c r="E221">
-        <f>B221/B220-1</f>
+        <f t="shared" si="15"/>
         <v>-1.6227077800861189E-2</v>
       </c>
       <c r="F221">
-        <f>C221/C220-1</f>
+        <f t="shared" si="16"/>
         <v>-6.4102777777778064E-3</v>
       </c>
       <c r="G221" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H221" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.6967365134094359E-2</v>
       </c>
       <c r="I221" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-7.1505651110109758E-3</v>
       </c>
     </row>
@@ -20753,23 +20753,23 @@
         <v>0.04</v>
       </c>
       <c r="E222">
-        <f>B222/B221-1</f>
+        <f t="shared" si="15"/>
         <v>-1.9573629974304563E-2</v>
       </c>
       <c r="F222">
-        <f>C222/C221-1</f>
+        <f t="shared" si="16"/>
         <v>4.1720215950972417E-2</v>
       </c>
       <c r="G222" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H222" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.0313917307537732E-2</v>
       </c>
       <c r="I222" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4.0979928617739247E-2</v>
       </c>
     </row>
@@ -20787,23 +20787,23 @@
         <v>0.04</v>
       </c>
       <c r="E223">
-        <f>B223/B222-1</f>
+        <f t="shared" si="15"/>
         <v>-3.3296273276584021E-4</v>
       </c>
       <c r="F223">
-        <f>C223/C222-1</f>
+        <f t="shared" si="16"/>
         <v>-0.10198185635426127</v>
       </c>
       <c r="G223" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H223" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.0732500659990096E-3</v>
       </c>
       <c r="I223" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-0.10272214368749444</v>
       </c>
     </row>
@@ -20821,23 +20821,23 @@
         <v>0.04</v>
       </c>
       <c r="E224">
-        <f>B224/B223-1</f>
+        <f t="shared" si="15"/>
         <v>-3.7094160914650232E-3</v>
       </c>
       <c r="F224">
-        <f>C224/C223-1</f>
+        <f t="shared" si="16"/>
         <v>4.5993115078712954E-4</v>
       </c>
       <c r="G224" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H224" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-4.4497034246981926E-3</v>
       </c>
       <c r="I224" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-2.8035618244603988E-4</v>
       </c>
     </row>
@@ -20855,23 +20855,23 @@
         <v>0.04</v>
       </c>
       <c r="E225">
-        <f>B225/B224-1</f>
+        <f t="shared" si="15"/>
         <v>-8.7313788294480776E-3</v>
       </c>
       <c r="F225">
-        <f>C225/C224-1</f>
+        <f t="shared" si="16"/>
         <v>-0.12913613319265926</v>
       </c>
       <c r="G225" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H225" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.4716661626812471E-3</v>
       </c>
       <c r="I225" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-0.12987642052589243</v>
       </c>
     </row>
@@ -20889,23 +20889,23 @@
         <v>0.04</v>
       </c>
       <c r="E226">
-        <f>B226/B225-1</f>
+        <f t="shared" si="15"/>
         <v>-6.9301961361281084E-3</v>
       </c>
       <c r="F226">
-        <f>C226/C225-1</f>
+        <f t="shared" si="16"/>
         <v>-7.9155953383841515E-3</v>
       </c>
       <c r="G226" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H226" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-7.6704834693612778E-3</v>
       </c>
       <c r="I226" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-8.6558826716173209E-3</v>
       </c>
     </row>
@@ -20923,23 +20923,23 @@
         <v>0.04</v>
       </c>
       <c r="E227">
-        <f>B227/B226-1</f>
+        <f t="shared" si="15"/>
         <v>-8.5633898581871648E-3</v>
       </c>
       <c r="F227">
-        <f>C227/C226-1</f>
+        <f t="shared" si="16"/>
         <v>1.0638220631489004E-2</v>
       </c>
       <c r="G227" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H227" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.3036771914203342E-3</v>
       </c>
       <c r="I227" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>9.8979332982558343E-3</v>
       </c>
     </row>
@@ -20957,23 +20957,23 @@
         <v>0.04</v>
       </c>
       <c r="E228">
-        <f>B228/B227-1</f>
+        <f t="shared" si="15"/>
         <v>8.818712694042885E-3</v>
       </c>
       <c r="F228">
-        <f>C228/C227-1</f>
+        <f t="shared" si="16"/>
         <v>-3.4736695180009103E-2</v>
       </c>
       <c r="G228" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H228" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8.0784253608097156E-3</v>
       </c>
       <c r="I228" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-3.5476982513242272E-2</v>
       </c>
     </row>
@@ -20991,23 +20991,23 @@
         <v>0.04</v>
       </c>
       <c r="E229">
-        <f>B229/B228-1</f>
+        <f t="shared" si="15"/>
         <v>9.6137448511413037E-3</v>
       </c>
       <c r="F229">
-        <f>C229/C228-1</f>
+        <f t="shared" si="16"/>
         <v>-5.4509278273051631E-4</v>
       </c>
       <c r="G229" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H229" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8.8734575179081343E-3</v>
       </c>
       <c r="I229" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1.2853801159636857E-3</v>
       </c>
     </row>
@@ -21025,23 +21025,23 @@
         <v>0.04</v>
       </c>
       <c r="E230">
-        <f>B230/B229-1</f>
+        <f t="shared" si="15"/>
         <v>3.368398539385753E-2</v>
       </c>
       <c r="F230">
-        <f>C230/C229-1</f>
+        <f t="shared" si="16"/>
         <v>7.6377304964539094E-2</v>
       </c>
       <c r="G230" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H230" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3.294369806062436E-2</v>
       </c>
       <c r="I230" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7.5637017631305925E-2</v>
       </c>
     </row>
@@ -21059,23 +21059,23 @@
         <v>0.04</v>
       </c>
       <c r="E231">
-        <f>B231/B230-1</f>
+        <f t="shared" si="15"/>
         <v>-1.5578676993881047E-2</v>
       </c>
       <c r="F231">
-        <f>C231/C230-1</f>
+        <f t="shared" si="16"/>
         <v>3.4465491021893779E-2</v>
       </c>
       <c r="G231" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H231" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.6318964327114216E-2</v>
       </c>
       <c r="I231" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.372520368866061E-2</v>
       </c>
     </row>
@@ -21093,23 +21093,23 @@
         <v>0.04</v>
       </c>
       <c r="E232">
-        <f>B232/B231-1</f>
+        <f t="shared" si="15"/>
         <v>7.9190538061355564E-3</v>
       </c>
       <c r="F232">
-        <f>C232/C231-1</f>
+        <f t="shared" si="16"/>
         <v>-0.15605095541401282</v>
       </c>
       <c r="G232" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H232" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.178766472902387E-3</v>
       </c>
       <c r="I232" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-0.15679124274724598</v>
       </c>
     </row>
@@ -21127,23 +21127,23 @@
         <v>0.04</v>
       </c>
       <c r="E233">
-        <f>B233/B232-1</f>
+        <f t="shared" si="15"/>
         <v>-1.8176141268894885E-2</v>
       </c>
       <c r="F233">
-        <f>C233/C232-1</f>
+        <f t="shared" si="16"/>
         <v>-8.679245283018866E-2</v>
       </c>
       <c r="G233" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H233" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.8916428602128055E-2</v>
       </c>
       <c r="I233" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-8.7532740163421829E-2</v>
       </c>
     </row>
@@ -21161,23 +21161,23 @@
         <v>0.04</v>
       </c>
       <c r="E234">
-        <f>B234/B233-1</f>
+        <f t="shared" si="15"/>
         <v>-4.6101913009303219E-3</v>
       </c>
       <c r="F234">
-        <f>C234/C233-1</f>
+        <f t="shared" si="16"/>
         <v>0.18595041322314065</v>
       </c>
       <c r="G234" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H234" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-5.3504786341634913E-3</v>
       </c>
       <c r="I234" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.18521012588990748</v>
       </c>
     </row>
@@ -21195,23 +21195,23 @@
         <v>0.04</v>
       </c>
       <c r="E235">
-        <f>B235/B234-1</f>
+        <f t="shared" si="15"/>
         <v>1.8026012578440387E-3</v>
       </c>
       <c r="F235">
-        <f>C235/C234-1</f>
+        <f t="shared" si="16"/>
         <v>-1.0452961672474004E-2</v>
       </c>
       <c r="G235" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H235" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1.0623139246108693E-3</v>
       </c>
       <c r="I235" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1.1193249005707173E-2</v>
       </c>
     </row>
@@ -21229,23 +21229,23 @@
         <v>0.04</v>
       </c>
       <c r="E236">
-        <f>B236/B235-1</f>
+        <f t="shared" si="15"/>
         <v>3.6860703348783108E-2</v>
       </c>
       <c r="F236">
-        <f>C236/C235-1</f>
+        <f t="shared" si="16"/>
         <v>-2.1126760563380254E-2</v>
       </c>
       <c r="G236" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H236" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3.6120416015549939E-2</v>
       </c>
       <c r="I236" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-2.1867047896613423E-2</v>
       </c>
     </row>
@@ -21263,23 +21263,23 @@
         <v>0.04</v>
       </c>
       <c r="E237">
-        <f>B237/B236-1</f>
+        <f t="shared" si="15"/>
         <v>1.5301910690720177E-2</v>
       </c>
       <c r="F237">
-        <f>C237/C236-1</f>
+        <f t="shared" si="16"/>
         <v>-7.1942446043165353E-2</v>
       </c>
       <c r="G237" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H237" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1.4561623357487008E-2</v>
       </c>
       <c r="I237" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-7.2682733376398523E-2</v>
       </c>
     </row>
@@ -21297,23 +21297,23 @@
         <v>0.04</v>
       </c>
       <c r="E238">
-        <f>B238/B237-1</f>
+        <f t="shared" si="15"/>
         <v>-7.0678254912052152E-3</v>
       </c>
       <c r="F238">
-        <f>C238/C237-1</f>
+        <f t="shared" si="16"/>
         <v>-7.7519379844961267E-2</v>
       </c>
       <c r="G238" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H238" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-7.8081128244383846E-3</v>
       </c>
       <c r="I238" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-7.8259667178194436E-2</v>
       </c>
     </row>
@@ -21331,23 +21331,23 @@
         <v>0.04</v>
       </c>
       <c r="E239">
-        <f>B239/B238-1</f>
+        <f t="shared" si="15"/>
         <v>7.6772109558460588E-3</v>
       </c>
       <c r="F239">
-        <f>C239/C238-1</f>
+        <f t="shared" si="16"/>
         <v>-0.20168067226890751</v>
       </c>
       <c r="G239" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H239" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.9369236226128894E-3</v>
       </c>
       <c r="I239" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-0.20242095960214068</v>
       </c>
     </row>
@@ -21365,23 +21365,23 @@
         <v>0.04</v>
       </c>
       <c r="E240">
-        <f>B240/B239-1</f>
+        <f t="shared" si="15"/>
         <v>-2.227014184691356E-2</v>
       </c>
       <c r="F240">
-        <f>C240/C239-1</f>
+        <f t="shared" si="16"/>
         <v>0.10526315789473695</v>
       </c>
       <c r="G240" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H240" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.301042918014673E-2</v>
       </c>
       <c r="I240" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.10452287056150378</v>
       </c>
     </row>
@@ -21399,23 +21399,23 @@
         <v>0.04</v>
       </c>
       <c r="E241">
-        <f>B241/B240-1</f>
+        <f t="shared" si="15"/>
         <v>1.4691841339903533E-2</v>
       </c>
       <c r="F241">
-        <f>C241/C240-1</f>
+        <f t="shared" si="16"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="G241" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H241" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1.3951554006670364E-2</v>
       </c>
       <c r="I241" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>9.9259712666766919E-2</v>
       </c>
     </row>
@@ -21433,23 +21433,23 @@
         <v>0.04</v>
       </c>
       <c r="E242">
-        <f>B242/B241-1</f>
+        <f t="shared" si="15"/>
         <v>7.5663555448741704E-3</v>
       </c>
       <c r="F242">
-        <f>C242/C241-1</f>
+        <f t="shared" si="16"/>
         <v>0.1385281385281385</v>
       </c>
       <c r="G242" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H242" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.826068211641001E-3</v>
       </c>
       <c r="I242" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.13778785119490533</v>
       </c>
     </row>
@@ -21467,23 +21467,23 @@
         <v>0.04</v>
       </c>
       <c r="E243">
-        <f>B243/B242-1</f>
+        <f t="shared" si="15"/>
         <v>-5.551144344784209E-4</v>
       </c>
       <c r="F243">
-        <f>C243/C242-1</f>
+        <f t="shared" si="16"/>
         <v>1.9011406844106515E-2</v>
       </c>
       <c r="G243" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H243" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.2954017677115903E-3</v>
       </c>
       <c r="I243" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.8271119510873346E-2</v>
       </c>
     </row>
@@ -21501,23 +21501,23 @@
         <v>0.04</v>
       </c>
       <c r="E244">
-        <f>B244/B243-1</f>
+        <f t="shared" si="15"/>
         <v>3.0454159025816718E-3</v>
       </c>
       <c r="F244">
-        <f>C244/C243-1</f>
+        <f t="shared" si="16"/>
         <v>-7.4626865671642006E-3</v>
       </c>
       <c r="G244" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H244" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.3051285693485024E-3</v>
       </c>
       <c r="I244" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-8.2029739003973701E-3</v>
       </c>
     </row>
@@ -21535,23 +21535,23 @@
         <v>0.04</v>
       </c>
       <c r="E245">
-        <f>B245/B244-1</f>
+        <f t="shared" si="15"/>
         <v>-1.1373198711150612E-2</v>
       </c>
       <c r="F245">
-        <f>C245/C244-1</f>
+        <f t="shared" si="16"/>
         <v>-6.7669172932330879E-2</v>
       </c>
       <c r="G245" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H245" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.2113486044383781E-2</v>
       </c>
       <c r="I245" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-6.8409460265564048E-2</v>
       </c>
     </row>
@@ -21569,23 +21569,23 @@
         <v>0.04</v>
       </c>
       <c r="E246">
-        <f>B246/B245-1</f>
+        <f t="shared" si="15"/>
         <v>8.1559970789610858E-3</v>
       </c>
       <c r="F246">
-        <f>C246/C245-1</f>
+        <f t="shared" si="16"/>
         <v>-5.6451612903225867E-2</v>
       </c>
       <c r="G246" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H246" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.4157097457279164E-3</v>
       </c>
       <c r="I246" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-5.7191900236459037E-2</v>
       </c>
     </row>
@@ -21603,23 +21603,23 @@
         <v>0.04</v>
       </c>
       <c r="E247">
-        <f>B247/B246-1</f>
+        <f t="shared" si="15"/>
         <v>-9.6126458540213289E-4</v>
       </c>
       <c r="F247">
-        <f>C247/C246-1</f>
+        <f t="shared" si="16"/>
         <v>-5.9829059829059728E-2</v>
       </c>
       <c r="G247" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H247" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.7015519186353023E-3</v>
       </c>
       <c r="I247" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-6.0569347162292897E-2</v>
       </c>
     </row>
@@ -21637,23 +21637,23 @@
         <v>0.04</v>
       </c>
       <c r="E248">
-        <f>B248/B247-1</f>
+        <f t="shared" si="15"/>
         <v>-2.2550243860891661E-2</v>
       </c>
       <c r="F248">
-        <f>C248/C247-1</f>
+        <f t="shared" si="16"/>
         <v>-6.3636363636363713E-2</v>
       </c>
       <c r="G248" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H248" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.3290531194124831E-2</v>
       </c>
       <c r="I248" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-6.4376650969596882E-2</v>
       </c>
     </row>
@@ -21671,23 +21671,23 @@
         <v>0.04</v>
       </c>
       <c r="E249">
-        <f>B249/B248-1</f>
+        <f t="shared" si="15"/>
         <v>-1.2740153951931954E-2</v>
       </c>
       <c r="F249">
-        <f>C249/C248-1</f>
+        <f t="shared" si="16"/>
         <v>-2.9126213592232997E-2</v>
       </c>
       <c r="G249" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H249" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.3480441285165123E-2</v>
       </c>
       <c r="I249" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-2.9866500925466166E-2</v>
       </c>
     </row>
@@ -21705,23 +21705,23 @@
         <v>0.04</v>
       </c>
       <c r="E250">
-        <f>B250/B249-1</f>
+        <f t="shared" si="15"/>
         <v>3.0496829833468464E-3</v>
       </c>
       <c r="F250">
-        <f>C250/C249-1</f>
+        <f t="shared" si="16"/>
         <v>0.21999999999999997</v>
       </c>
       <c r="G250" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H250" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.309395650113677E-3</v>
       </c>
       <c r="I250" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.2192597126667668</v>
       </c>
     </row>
@@ -21739,23 +21739,23 @@
         <v>0.04</v>
       </c>
       <c r="E251">
-        <f>B251/B250-1</f>
+        <f t="shared" si="15"/>
         <v>-1.523435891097713E-3</v>
       </c>
       <c r="F251">
-        <f>C251/C250-1</f>
+        <f t="shared" si="16"/>
         <v>-8.6065573770491843E-2</v>
       </c>
       <c r="G251" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H251" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.2637232243308825E-3</v>
       </c>
       <c r="I251" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-8.6805861103725013E-2</v>
       </c>
     </row>
@@ -21773,23 +21773,23 @@
         <v>0.04</v>
       </c>
       <c r="E252">
-        <f>B252/B251-1</f>
+        <f t="shared" si="15"/>
         <v>-5.7733933785888425E-3</v>
       </c>
       <c r="F252">
-        <f>C252/C251-1</f>
+        <f t="shared" si="16"/>
         <v>5.8295964125560484E-2</v>
       </c>
       <c r="G252" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H252" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-6.5136807118220119E-3</v>
       </c>
       <c r="I252" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.7555676792327315E-2</v>
       </c>
     </row>
@@ -21807,23 +21807,23 @@
         <v>0.04</v>
       </c>
       <c r="E253">
-        <f>B253/B252-1</f>
+        <f t="shared" si="15"/>
         <v>-2.8533717156957183E-2</v>
       </c>
       <c r="F253">
-        <f>C253/C252-1</f>
+        <f t="shared" si="16"/>
         <v>-5.5084745762711829E-2</v>
       </c>
       <c r="G253" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H253" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.9274004490190353E-2</v>
       </c>
       <c r="I253" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-5.5825033095944998E-2</v>
       </c>
     </row>
@@ -21841,23 +21841,23 @@
         <v>0.04</v>
       </c>
       <c r="E254">
-        <f>B254/B253-1</f>
+        <f t="shared" si="15"/>
         <v>-2.4907100117438907E-2</v>
       </c>
       <c r="F254">
-        <f>C254/C253-1</f>
+        <f t="shared" si="16"/>
         <v>-6.7264573991031362E-2</v>
       </c>
       <c r="G254" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H254" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.5647387450672077E-2</v>
       </c>
       <c r="I254" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-6.8004861324264532E-2</v>
       </c>
     </row>
@@ -21875,23 +21875,23 @@
         <v>0.04</v>
       </c>
       <c r="E255">
-        <f>B255/B254-1</f>
+        <f t="shared" si="15"/>
         <v>-1.3756771378260813E-2</v>
       </c>
       <c r="F255">
-        <f>C255/C254-1</f>
+        <f t="shared" si="16"/>
         <v>-3.8461538461538547E-2</v>
       </c>
       <c r="G255" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H255" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.4497058711493982E-2</v>
       </c>
       <c r="I255" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-3.9201825794771716E-2</v>
       </c>
     </row>
@@ -21909,23 +21909,23 @@
         <v>0.04</v>
       </c>
       <c r="E256">
-        <f>B256/B255-1</f>
+        <f t="shared" si="15"/>
         <v>9.0763829920950112E-3</v>
       </c>
       <c r="F256">
-        <f>C256/C255-1</f>
+        <f t="shared" si="16"/>
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="G256" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H256" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8.3360956588618418E-3</v>
       </c>
       <c r="I256" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-3.0740287333233196E-2</v>
       </c>
     </row>
@@ -21943,23 +21943,23 @@
         <v>0.04</v>
       </c>
       <c r="E257">
-        <f>B257/B256-1</f>
+        <f t="shared" si="15"/>
         <v>-1.6520169937507267E-2</v>
       </c>
       <c r="F257">
-        <f>C257/C256-1</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G257" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H257" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1.7260457270740437E-2</v>
       </c>
       <c r="I257" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-7.4028733323316942E-4</v>
       </c>
     </row>
@@ -21977,23 +21977,23 @@
         <v>0.04</v>
       </c>
       <c r="E258">
-        <f>B258/B257-1</f>
+        <f t="shared" si="15"/>
         <v>-5.1551054495758697E-3</v>
       </c>
       <c r="F258">
-        <f>C258/C257-1</f>
+        <f t="shared" si="16"/>
         <v>-1.0309278350515427E-2</v>
       </c>
       <c r="G258" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H258" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-5.8953927828090391E-3</v>
       </c>
       <c r="I258" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>-1.1049565683748597E-2</v>
       </c>
     </row>
@@ -22011,23 +22011,23 @@
         <v>0.04</v>
       </c>
       <c r="E259">
-        <f>B259/B258-1</f>
+        <f t="shared" si="15"/>
         <v>3.3388870851035701E-2</v>
       </c>
       <c r="F259">
-        <f>C259/C258-1</f>
+        <f t="shared" si="16"/>
         <v>0.171875</v>
       </c>
       <c r="G259" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H259" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3.2648583517802532E-2</v>
       </c>
       <c r="I259" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.17113471266676683</v>
       </c>
     </row>
@@ -22045,23 +22045,23 @@
         <v>0.04</v>
       </c>
       <c r="E260">
-        <f>B260/B259-1</f>
+        <f t="shared" si="15"/>
         <v>1.8031061615826349E-2</v>
       </c>
       <c r="F260">
-        <f>C260/C259-1</f>
+        <f t="shared" si="16"/>
         <v>8.4444444444444322E-2</v>
       </c>
       <c r="G260" s="7">
-        <f t="shared" ref="G260:G263" si="12">(1+D260)^(1/53) -1</f>
+        <f t="shared" ref="G260:G263" si="20">(1+D260)^(1/53) -1</f>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H260" s="8">
-        <f t="shared" ref="H260:H263" si="13">E260-G260</f>
+        <f t="shared" ref="H260:H263" si="21">E260-G260</f>
         <v>1.729077428259318E-2</v>
       </c>
       <c r="I260" s="8">
-        <f t="shared" ref="I260:I263" si="14">F260-G260</f>
+        <f t="shared" ref="I260:I263" si="22">F260-G260</f>
         <v>8.3704157111211153E-2</v>
       </c>
     </row>
@@ -22079,23 +22079,23 @@
         <v>0.04</v>
       </c>
       <c r="E261">
-        <f>B261/B260-1</f>
+        <f t="shared" si="15"/>
         <v>6.2457323099753825E-3</v>
       </c>
       <c r="F261">
-        <f>C261/C260-1</f>
+        <f t="shared" si="16"/>
         <v>-8.1967213114754189E-3</v>
       </c>
       <c r="G261" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H261" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>5.5054449767422131E-3</v>
       </c>
       <c r="I261" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-8.9370086447085884E-3</v>
       </c>
     </row>
@@ -22113,23 +22113,23 @@
         <v>0.04</v>
       </c>
       <c r="E262">
-        <f>B262/B261-1</f>
+        <f t="shared" si="15"/>
         <v>3.0900681619572268E-3</v>
       </c>
       <c r="F262">
-        <f>C262/C261-1</f>
+        <f t="shared" si="16"/>
         <v>4.1322314049586861E-2</v>
       </c>
       <c r="G262" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H262" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.3497808287240574E-3</v>
       </c>
       <c r="I262" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>4.0582026716353692E-2</v>
       </c>
     </row>
@@ -22147,23 +22147,23 @@
         <v>0.04</v>
       </c>
       <c r="E263">
-        <f>B263/B262-1</f>
+        <f t="shared" si="15"/>
         <v>-1.4473148045012207E-3</v>
       </c>
       <c r="F263">
-        <f>C263/C262-1</f>
+        <f t="shared" si="16"/>
         <v>1.5873015873015817E-2</v>
       </c>
       <c r="G263" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>7.4028733323316942E-4</v>
       </c>
       <c r="H263" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-2.1876021377343902E-3</v>
       </c>
       <c r="I263" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.5132728539782647E-2</v>
       </c>
     </row>
